--- a/Canopy cover.xlsx
+++ b/Canopy cover.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\14_ Colaboracion\2018 Moth Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aalonsor\OneDrive - University of Vermont\Documents\R\ElVerdeMoths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E69780D-61F2-4F64-97D2-E7A696177852}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A26696AD-8944-45A5-91EA-293D424F5E8B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Moth" sheetId="1" r:id="rId1"/>
+    <sheet name="for R" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="29">
   <si>
     <t>Tabonuco Odum</t>
   </si>
@@ -95,9 +95,6 @@
     <t>20 Nov 17</t>
   </si>
   <si>
-    <t>25-Jan-2017</t>
-  </si>
-  <si>
     <t>28-Feb-2018</t>
   </si>
   <si>
@@ -109,11 +106,26 @@
   <si>
     <t>8-Aug-2019</t>
   </si>
+  <si>
+    <t>Tabonuco</t>
+  </si>
+  <si>
+    <t>Palm</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>Canopy Openness</t>
+  </si>
+  <si>
+    <t>25-Jan-2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -220,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,6 +311,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,6 +1131,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2091,28 +2119,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6F958A-DB76-49EA-A41A-08753E16FE22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M226" sqref="M226"/>
+      <selection pane="bottomRight" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.88671875" style="2"/>
-    <col min="13" max="13" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="8.88671875" style="2"/>
-    <col min="21" max="21" width="8.109375" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.90625" style="2"/>
+    <col min="13" max="13" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="8.90625" style="2"/>
+    <col min="21" max="21" width="8.08984375" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
@@ -2129,7 +2157,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2179,7 +2207,7 @@
       </c>
       <c r="W3" s="27"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2299,7 +2327,7 @@
         <v>3.1018918958167023</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2351,7 +2379,7 @@
         <v>4.5703829161242195</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -2406,7 +2434,7 @@
         <v>0.6878953408767946</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2487,7 +2515,7 @@
         <v>3.7347199805786198</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -2542,7 +2570,7 @@
         <v>2.9159179991518567</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -2597,7 +2625,7 @@
         <v>2.9504877186285272</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -2629,7 +2657,7 @@
         <v>56.18888888888889</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2695,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C13" s="9">
         <v>2</v>
       </c>
@@ -2702,7 +2730,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C14" s="9">
         <v>6</v>
       </c>
@@ -2737,7 +2765,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2749,7 +2777,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2787,7 +2815,7 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C17" s="9">
         <v>5</v>
       </c>
@@ -2822,7 +2850,7 @@
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C18" s="9">
         <v>8</v>
       </c>
@@ -2857,7 +2885,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -2869,7 +2897,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2935,7 @@
       </c>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C21" s="9">
         <v>5</v>
       </c>
@@ -2942,7 +2970,7 @@
       </c>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C22" s="9">
         <v>3</v>
       </c>
@@ -2977,7 +3005,7 @@
       </c>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2989,7 +3017,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3055,7 @@
       </c>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C25" s="9">
         <v>5</v>
       </c>
@@ -3062,7 +3090,7 @@
       </c>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C26" s="9">
         <v>8</v>
       </c>
@@ -3097,7 +3125,7 @@
       </c>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3108,7 +3136,7 @@
       <c r="J27" s="15"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
@@ -3118,7 +3146,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C29" s="4" t="s">
         <v>1</v>
       </c>
@@ -3147,7 +3175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3212,7 @@
         <v>21.060000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C31" s="9">
         <v>4</v>
       </c>
@@ -3218,7 +3246,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C32" s="9">
         <v>7</v>
       </c>
@@ -3252,7 +3280,7 @@
         <v>11.180000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3263,7 +3291,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -3300,7 +3328,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C35" s="9">
         <v>7</v>
       </c>
@@ -3334,7 +3362,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C36" s="9">
         <v>9</v>
       </c>
@@ -3368,7 +3396,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -3379,7 +3407,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
@@ -3416,7 +3444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C39" s="9">
         <v>6</v>
       </c>
@@ -3450,7 +3478,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C40" s="9">
         <v>7</v>
       </c>
@@ -3484,7 +3512,7 @@
         <v>12.740000000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3495,7 +3523,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3560,7 @@
         <v>15.600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C43" s="9">
         <v>22</v>
       </c>
@@ -3566,7 +3594,7 @@
         <v>19.240000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C44" s="9">
         <v>10</v>
       </c>
@@ -3600,7 +3628,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -3611,7 +3639,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3648,7 +3676,7 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C47" s="9">
         <v>3</v>
       </c>
@@ -3682,7 +3710,7 @@
         <v>9.620000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C48" s="9">
         <v>7</v>
       </c>
@@ -3716,7 +3744,7 @@
         <v>12.219999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -3727,7 +3755,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>9</v>
       </c>
@@ -3764,7 +3792,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C51" s="9">
         <v>10</v>
       </c>
@@ -3798,7 +3826,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C52" s="9">
         <v>16</v>
       </c>
@@ -3832,7 +3860,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +3870,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C55" s="4" t="s">
         <v>1</v>
       </c>
@@ -3871,7 +3899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
@@ -3908,7 +3936,7 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C57" s="9">
         <v>64</v>
       </c>
@@ -3942,7 +3970,7 @@
         <v>84.76</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C58" s="9">
         <v>79</v>
       </c>
@@ -3976,7 +4004,7 @@
         <v>84.759999999999991</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -3987,7 +4015,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -4024,7 +4052,7 @@
         <v>79.819999999999993</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C61" s="9">
         <v>81</v>
       </c>
@@ -4058,7 +4086,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C62" s="9">
         <v>75</v>
       </c>
@@ -4092,7 +4120,7 @@
         <v>85.28</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -4103,7 +4131,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
@@ -4140,7 +4168,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C65" s="9">
         <v>76</v>
       </c>
@@ -4174,7 +4202,7 @@
         <v>83.460000000000008</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C66" s="9">
         <v>80</v>
       </c>
@@ -4208,7 +4236,7 @@
         <v>84.76</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -4219,7 +4247,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
@@ -4256,7 +4284,7 @@
         <v>60.06</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C69" s="9">
         <v>68</v>
       </c>
@@ -4290,7 +4318,7 @@
         <v>63.959999999999994</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C70" s="9">
         <v>65</v>
       </c>
@@ -4324,7 +4352,7 @@
         <v>77.48</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -4335,7 +4363,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
@@ -4372,7 +4400,7 @@
         <v>74.36</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C73" s="9">
         <v>81</v>
       </c>
@@ -4406,7 +4434,7 @@
         <v>76.180000000000007</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C74" s="9">
         <v>74</v>
       </c>
@@ -4440,7 +4468,7 @@
         <v>76.960000000000008</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4451,7 +4479,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="2" t="s">
         <v>9</v>
       </c>
@@ -4488,7 +4516,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C77" s="11">
         <v>79</v>
       </c>
@@ -4522,7 +4550,7 @@
         <v>86.58</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C78" s="11">
         <v>90</v>
       </c>
@@ -4556,7 +4584,7 @@
         <v>83.460000000000008</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="22"/>
       <c r="G81" s="5" t="s">
         <v>1</v>
@@ -4574,7 +4602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="29" t="s">
         <v>18</v>
       </c>
@@ -4615,7 +4643,7 @@
       </c>
       <c r="L82" s="30"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
         <v>18</v>
       </c>
@@ -4654,7 +4682,7 @@
       </c>
       <c r="L83" s="30"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="29" t="s">
         <v>18</v>
       </c>
@@ -4696,7 +4724,7 @@
         <v>57.98</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
         <v>18</v>
       </c>
@@ -4712,7 +4740,7 @@
       <c r="K85" s="36"/>
       <c r="L85" s="30"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="29" t="s">
         <v>18</v>
       </c>
@@ -4753,7 +4781,7 @@
       </c>
       <c r="L86" s="30"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="29" t="s">
         <v>18</v>
       </c>
@@ -4792,7 +4820,7 @@
       </c>
       <c r="L87" s="30"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
         <v>18</v>
       </c>
@@ -4834,7 +4862,7 @@
         <v>54.773333333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
         <v>18</v>
       </c>
@@ -4850,7 +4878,7 @@
       <c r="K89" s="36"/>
       <c r="L89" s="30"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
         <v>18</v>
       </c>
@@ -4891,7 +4919,7 @@
       </c>
       <c r="L90" s="30"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="29" t="s">
         <v>18</v>
       </c>
@@ -4930,7 +4958,7 @@
       </c>
       <c r="L91" s="30"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="29" t="s">
         <v>18</v>
       </c>
@@ -4972,7 +5000,7 @@
         <v>51.22</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
         <v>18</v>
       </c>
@@ -4988,7 +5016,7 @@
       <c r="K93" s="36"/>
       <c r="L93" s="30"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
         <v>18</v>
       </c>
@@ -5029,7 +5057,7 @@
       </c>
       <c r="L94" s="30"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="29" t="s">
         <v>18</v>
       </c>
@@ -5068,7 +5096,7 @@
       </c>
       <c r="L95" s="30"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="29" t="s">
         <v>18</v>
       </c>
@@ -5110,7 +5138,7 @@
         <v>53.04</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="29" t="s">
         <v>18</v>
       </c>
@@ -5126,7 +5154,7 @@
       <c r="K97" s="36"/>
       <c r="L97" s="30"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="29" t="s">
         <v>18</v>
       </c>
@@ -5167,7 +5195,7 @@
       </c>
       <c r="L98" s="30"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="29" t="s">
         <v>18</v>
       </c>
@@ -5206,7 +5234,7 @@
       </c>
       <c r="L99" s="30"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="29" t="s">
         <v>18</v>
       </c>
@@ -5248,7 +5276,7 @@
         <v>59.45333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="29" t="s">
         <v>18</v>
       </c>
@@ -5264,7 +5292,7 @@
       <c r="K101" s="36"/>
       <c r="L101" s="30"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="29" t="s">
         <v>18</v>
       </c>
@@ -5305,7 +5333,7 @@
       </c>
       <c r="L102" s="30"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="29" t="s">
         <v>18</v>
       </c>
@@ -5344,7 +5372,7 @@
       </c>
       <c r="L103" s="30"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="29" t="s">
         <v>18</v>
       </c>
@@ -5386,7 +5414,7 @@
         <v>60.666666666666679</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="22"/>
       <c r="G106" s="5" t="s">
         <v>1</v>
@@ -5404,9 +5432,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>0</v>
@@ -5444,9 +5472,9 @@
         <v>49.140000000000008</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C108" s="20">
         <v>30</v>
@@ -5481,9 +5509,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C109" s="20">
         <v>51</v>
@@ -5522,9 +5550,9 @@
         <v>53.56</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="11"/>
@@ -5532,9 +5560,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>5</v>
@@ -5572,9 +5600,9 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C112" s="20">
         <v>53</v>
@@ -5609,9 +5637,9 @@
         <v>45.760000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C113" s="20">
         <v>62</v>
@@ -5650,9 +5678,9 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="11"/>
@@ -5660,9 +5688,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>6</v>
@@ -5700,9 +5728,9 @@
         <v>50.180000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C116" s="20">
         <v>40</v>
@@ -5737,9 +5765,9 @@
         <v>49.400000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C117" s="20">
         <v>33</v>
@@ -5778,9 +5806,9 @@
         <v>49.140000000000008</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="11"/>
@@ -5788,9 +5816,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>7</v>
@@ -5828,9 +5856,9 @@
         <v>42.38</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C120" s="20">
         <v>45</v>
@@ -5865,9 +5893,9 @@
         <v>37.960000000000008</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C121" s="20">
         <v>42</v>
@@ -5906,9 +5934,9 @@
         <v>43.680000000000007</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G122" s="10"/>
       <c r="H122" s="11"/>
@@ -5916,9 +5944,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>8</v>
@@ -5956,9 +5984,9 @@
         <v>48.36</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C124" s="20">
         <v>37</v>
@@ -5993,9 +6021,9 @@
         <v>41.600000000000009</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C125" s="20">
         <v>44</v>
@@ -6034,9 +6062,9 @@
         <v>47.146666666666668</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="11"/>
@@ -6044,9 +6072,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
@@ -6084,9 +6112,9 @@
         <v>49.92</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C128" s="20">
         <v>31</v>
@@ -6121,9 +6149,9 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C129" s="20">
         <v>52</v>
@@ -6162,7 +6190,7 @@
         <v>51.913333333333334</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="22"/>
       <c r="G132" s="5" t="s">
         <v>1</v>
@@ -6180,9 +6208,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>0</v>
@@ -6221,9 +6249,9 @@
       </c>
       <c r="L133" s="30"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134" s="30"/>
       <c r="C134" s="31">
@@ -6260,9 +6288,9 @@
       </c>
       <c r="L134" s="30"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B135" s="30"/>
       <c r="C135" s="31">
@@ -6302,9 +6330,9 @@
         <v>45.153333333333336</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B136" s="30"/>
       <c r="C136" s="30"/>
@@ -6318,9 +6346,9 @@
       <c r="K136" s="36"/>
       <c r="L136" s="30"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>5</v>
@@ -6359,9 +6387,9 @@
       </c>
       <c r="L137" s="30"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B138" s="30"/>
       <c r="C138" s="31">
@@ -6398,9 +6426,9 @@
       </c>
       <c r="L138" s="30"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B139" s="30"/>
       <c r="C139" s="31">
@@ -6440,9 +6468,9 @@
         <v>46.02</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
@@ -6456,9 +6484,9 @@
       <c r="K140" s="36"/>
       <c r="L140" s="30"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>6</v>
@@ -6497,9 +6525,9 @@
       </c>
       <c r="L141" s="30"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B142" s="30"/>
       <c r="C142" s="31">
@@ -6536,9 +6564,9 @@
       </c>
       <c r="L142" s="30"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B143" s="30"/>
       <c r="C143" s="31">
@@ -6578,9 +6606,9 @@
         <v>45.066666666666663</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
@@ -6594,9 +6622,9 @@
       <c r="K144" s="36"/>
       <c r="L144" s="30"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>7</v>
@@ -6635,9 +6663,9 @@
       </c>
       <c r="L145" s="30"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B146" s="30"/>
       <c r="C146" s="31">
@@ -6674,9 +6702,9 @@
       </c>
       <c r="L146" s="30"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B147" s="30"/>
       <c r="C147" s="31">
@@ -6716,9 +6744,9 @@
         <v>44.46</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B148" s="30"/>
       <c r="C148" s="30"/>
@@ -6732,9 +6760,9 @@
       <c r="K148" s="36"/>
       <c r="L148" s="30"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>8</v>
@@ -6773,9 +6801,9 @@
       </c>
       <c r="L149" s="30"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B150" s="30"/>
       <c r="C150" s="31">
@@ -6812,9 +6840,9 @@
       </c>
       <c r="L150" s="30"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B151" s="30"/>
       <c r="C151" s="31">
@@ -6854,9 +6882,9 @@
         <v>42.38</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B152" s="30"/>
       <c r="C152" s="30"/>
@@ -6870,9 +6898,9 @@
       <c r="K152" s="36"/>
       <c r="L152" s="30"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>9</v>
@@ -6911,9 +6939,9 @@
       </c>
       <c r="L153" s="30"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B154" s="30"/>
       <c r="C154" s="31">
@@ -6950,9 +6978,9 @@
       </c>
       <c r="L154" s="30"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B155" s="30"/>
       <c r="C155" s="31">
@@ -6992,9 +7020,9 @@
         <v>52.259999999999991</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>0</v>
@@ -7032,9 +7060,9 @@
         <v>45.239999999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C158" s="20">
         <v>29</v>
@@ -7069,9 +7097,9 @@
         <v>51.22</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C159" s="20">
         <v>42</v>
@@ -7110,9 +7138,9 @@
         <v>50.526666666666664</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="11"/>
@@ -7120,9 +7148,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>5</v>
@@ -7160,9 +7188,9 @@
         <v>35.619999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C162" s="20">
         <v>39</v>
@@ -7197,9 +7225,9 @@
         <v>47.84</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C163" s="20">
         <v>66</v>
@@ -7238,9 +7266,9 @@
         <v>46.02</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="11"/>
@@ -7248,9 +7276,9 @@
       <c r="J164" s="11"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>6</v>
@@ -7288,9 +7316,9 @@
         <v>34.32</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C166" s="20">
         <v>24</v>
@@ -7325,9 +7353,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C167" s="20">
         <v>35</v>
@@ -7366,9 +7394,9 @@
         <v>39.43333333333333</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G168" s="10"/>
       <c r="H168" s="11"/>
@@ -7376,9 +7404,9 @@
       <c r="J168" s="11"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>7</v>
@@ -7416,9 +7444,9 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C170" s="20">
         <v>40</v>
@@ -7453,9 +7481,9 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C171" s="20">
         <v>35</v>
@@ -7494,9 +7522,9 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G172" s="10"/>
       <c r="H172" s="11"/>
@@ -7504,9 +7532,9 @@
       <c r="J172" s="11"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>8</v>
@@ -7544,9 +7572,9 @@
         <v>40.82</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C174" s="20">
         <v>31</v>
@@ -7581,9 +7609,9 @@
         <v>33.54</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C175" s="20">
         <v>35</v>
@@ -7622,9 +7650,9 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G176" s="10"/>
       <c r="H176" s="11"/>
@@ -7632,9 +7660,9 @@
       <c r="J176" s="11"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>9</v>
@@ -7672,7 +7700,7 @@
         <v>42.120000000000005</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C178" s="20">
         <v>48</v>
       </c>
@@ -7706,7 +7734,7 @@
         <v>51.74</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C179" s="20">
         <v>43</v>
       </c>
@@ -7744,9 +7772,9 @@
         <v>47.84</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B181" s="30" t="s">
         <v>0</v>
@@ -7785,9 +7813,9 @@
       </c>
       <c r="L181" s="30"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B182" s="30"/>
       <c r="C182" s="31">
@@ -7824,9 +7852,9 @@
       </c>
       <c r="L182" s="30"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B183" s="30"/>
       <c r="C183" s="31">
@@ -7866,9 +7894,9 @@
         <v>27.126666666666665</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B184" s="30"/>
       <c r="C184" s="30"/>
@@ -7882,9 +7910,9 @@
       <c r="K184" s="36"/>
       <c r="L184" s="30"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>5</v>
@@ -7923,9 +7951,9 @@
       </c>
       <c r="L185" s="30"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B186" s="30"/>
       <c r="C186" s="31">
@@ -7962,9 +7990,9 @@
       </c>
       <c r="L186" s="30"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B187" s="30"/>
       <c r="C187" s="31">
@@ -8004,9 +8032,9 @@
         <v>37.093333333333334</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
@@ -8020,9 +8048,9 @@
       <c r="K188" s="36"/>
       <c r="L188" s="30"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>6</v>
@@ -8061,9 +8089,9 @@
       </c>
       <c r="L189" s="30"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B190" s="30"/>
       <c r="C190" s="31">
@@ -8100,9 +8128,9 @@
       </c>
       <c r="L190" s="30"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B191" s="30"/>
       <c r="C191" s="31">
@@ -8142,9 +8170,9 @@
         <v>24.093333333333334</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
@@ -8158,9 +8186,9 @@
       <c r="K192" s="36"/>
       <c r="L192" s="30"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>7</v>
@@ -8199,9 +8227,9 @@
       </c>
       <c r="L193" s="30"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B194" s="30"/>
       <c r="C194" s="31">
@@ -8238,9 +8266,9 @@
       </c>
       <c r="L194" s="30"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B195" s="30"/>
       <c r="C195" s="31">
@@ -8280,9 +8308,9 @@
         <v>34.146666666666668</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
@@ -8296,9 +8324,9 @@
       <c r="K196" s="36"/>
       <c r="L196" s="30"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>8</v>
@@ -8337,9 +8365,9 @@
       </c>
       <c r="L197" s="30"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B198" s="30"/>
       <c r="C198" s="31">
@@ -8376,9 +8404,9 @@
       </c>
       <c r="L198" s="30"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B199" s="30"/>
       <c r="C199" s="31">
@@ -8418,9 +8446,9 @@
         <v>34.753333333333337</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B200" s="30"/>
       <c r="C200" s="30"/>
@@ -8434,9 +8462,9 @@
       <c r="K200" s="36"/>
       <c r="L200" s="30"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B201" s="30" t="s">
         <v>9</v>
@@ -8475,9 +8503,9 @@
       </c>
       <c r="L201" s="30"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B202" s="30"/>
       <c r="C202" s="31">
@@ -8514,7 +8542,7 @@
       </c>
       <c r="L202" s="30"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="30"/>
       <c r="B203" s="30"/>
       <c r="C203" s="31">
@@ -8554,9 +8582,9 @@
         <v>44.98</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B204" s="38" t="s">
         <v>0</v>
@@ -8595,9 +8623,9 @@
       </c>
       <c r="L204" s="38"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B205" s="38"/>
       <c r="C205" s="39">
@@ -8634,9 +8662,9 @@
       </c>
       <c r="L205" s="38"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B206" s="38"/>
       <c r="C206" s="39">
@@ -8676,9 +8704,9 @@
         <v>17.246666666666666</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B207" s="38"/>
       <c r="C207" s="38"/>
@@ -8692,9 +8720,9 @@
       <c r="K207" s="43"/>
       <c r="L207" s="38"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B208" s="38" t="s">
         <v>5</v>
@@ -8733,9 +8761,9 @@
       </c>
       <c r="L208" s="38"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B209" s="38"/>
       <c r="C209" s="39">
@@ -8772,9 +8800,9 @@
       </c>
       <c r="L209" s="38"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B210" s="38"/>
       <c r="C210" s="39">
@@ -8814,9 +8842,9 @@
         <v>17.073333333333334</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B211" s="38"/>
       <c r="C211" s="38"/>
@@ -8830,9 +8858,9 @@
       <c r="K211" s="43"/>
       <c r="L211" s="38"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B212" s="38" t="s">
         <v>6</v>
@@ -8871,9 +8899,9 @@
       </c>
       <c r="L212" s="38"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B213" s="38"/>
       <c r="C213" s="39">
@@ -8910,9 +8938,9 @@
       </c>
       <c r="L213" s="38"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B214" s="38"/>
       <c r="C214" s="39">
@@ -8952,9 +8980,9 @@
         <v>19.586666666666666</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B215" s="38"/>
       <c r="C215" s="38"/>
@@ -8968,9 +8996,9 @@
       <c r="K215" s="43"/>
       <c r="L215" s="38"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B216" s="38" t="s">
         <v>7</v>
@@ -9009,9 +9037,9 @@
       </c>
       <c r="L216" s="38"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B217" s="38"/>
       <c r="C217" s="39">
@@ -9048,9 +9076,9 @@
       </c>
       <c r="L217" s="38"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B218" s="38"/>
       <c r="C218" s="39">
@@ -9090,9 +9118,9 @@
         <v>18.633333333333333</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B219" s="38"/>
       <c r="C219" s="38"/>
@@ -9106,9 +9134,9 @@
       <c r="K219" s="43"/>
       <c r="L219" s="38"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B220" s="38" t="s">
         <v>8</v>
@@ -9147,9 +9175,9 @@
       </c>
       <c r="L220" s="38"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B221" s="38"/>
       <c r="C221" s="39">
@@ -9186,9 +9214,9 @@
       </c>
       <c r="L221" s="38"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B222" s="38"/>
       <c r="C222" s="39">
@@ -9228,9 +9256,9 @@
         <v>20.713333333333335</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B223" s="38"/>
       <c r="C223" s="38"/>
@@ -9244,9 +9272,9 @@
       <c r="K223" s="43"/>
       <c r="L223" s="38"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B224" s="38" t="s">
         <v>9</v>
@@ -9285,9 +9313,9 @@
       </c>
       <c r="L224" s="38"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B225" s="38"/>
       <c r="C225" s="39">
@@ -9324,7 +9352,7 @@
       </c>
       <c r="L225" s="38"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="38"/>
       <c r="B226" s="38"/>
       <c r="C226" s="39">
@@ -9373,4 +9401,6650 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L159"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:A87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.26953125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="46" customWidth="1"/>
+    <col min="4" max="11" width="8.7265625" style="46"/>
+    <col min="12" max="12" width="16.453125" style="46" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="51">
+        <v>3</v>
+      </c>
+      <c r="E2" s="51">
+        <v>8</v>
+      </c>
+      <c r="F2" s="51">
+        <v>10</v>
+      </c>
+      <c r="G2" s="51">
+        <v>18</v>
+      </c>
+      <c r="H2" s="52">
+        <f>D2*1.04</f>
+        <v>3.12</v>
+      </c>
+      <c r="I2" s="52">
+        <f t="shared" ref="I2:K2" si="0">E2*1.04</f>
+        <v>8.32</v>
+      </c>
+      <c r="J2" s="52">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="K2" s="52">
+        <f t="shared" si="0"/>
+        <v>18.72</v>
+      </c>
+      <c r="L2" s="51">
+        <f>AVERAGE(H2:K2)</f>
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="51">
+        <v>7</v>
+      </c>
+      <c r="E3" s="51">
+        <v>7</v>
+      </c>
+      <c r="F3" s="51">
+        <v>9</v>
+      </c>
+      <c r="G3" s="51">
+        <v>8</v>
+      </c>
+      <c r="H3" s="52">
+        <f t="shared" ref="H3:K15" si="1">D3*1.04</f>
+        <v>7.28</v>
+      </c>
+      <c r="I3" s="52">
+        <f t="shared" si="1"/>
+        <v>7.28</v>
+      </c>
+      <c r="J3" s="52">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="K3" s="52">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="L3" s="51">
+        <f t="shared" ref="L3:L15" si="2">AVERAGE(H3:K3)</f>
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="51">
+        <v>7</v>
+      </c>
+      <c r="E4" s="51">
+        <v>3</v>
+      </c>
+      <c r="F4" s="51">
+        <v>14</v>
+      </c>
+      <c r="G4" s="51">
+        <v>9</v>
+      </c>
+      <c r="H4" s="52">
+        <f t="shared" si="1"/>
+        <v>7.28</v>
+      </c>
+      <c r="I4" s="52">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
+      <c r="J4" s="52">
+        <f t="shared" si="1"/>
+        <v>14.56</v>
+      </c>
+      <c r="K4" s="52">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="L4" s="51">
+        <f t="shared" si="2"/>
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>2.08</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="2"/>
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="12">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12">
+        <v>8</v>
+      </c>
+      <c r="F6" s="12">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="1"/>
+        <v>17.68</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="2"/>
+        <v>9.620000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>7.28</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="2"/>
+        <v>7.2800000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>9</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="2"/>
+        <v>6.2399999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="12">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="12">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="1"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>12.48</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="2"/>
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="2"/>
+        <v>5.9799999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="12">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="2"/>
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="1"/>
+        <v>7.28</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="2"/>
+        <v>6.7600000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="12">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12">
+        <v>16</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="1"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="1"/>
+        <v>16.64</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="2"/>
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="12">
+        <v>5</v>
+      </c>
+      <c r="E14" s="12">
+        <v>11</v>
+      </c>
+      <c r="F14" s="12">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="1"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>16.64</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="2"/>
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="47">
+        <v>42984</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="12">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12">
+        <v>9</v>
+      </c>
+      <c r="F15" s="12">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="1"/>
+        <v>13.52</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="2"/>
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>25</v>
+      </c>
+      <c r="E16" s="12">
+        <v>23</v>
+      </c>
+      <c r="F16" s="12">
+        <v>14</v>
+      </c>
+      <c r="G16" s="12">
+        <v>19</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" ref="H16:K18" si="3">D16*1.04</f>
+        <v>26</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="3"/>
+        <v>23.92</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="3"/>
+        <v>14.56</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="3"/>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" ref="L16:L39" si="4">AVERAGE(H16:K16)</f>
+        <v>21.060000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="12">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12">
+        <v>18</v>
+      </c>
+      <c r="F17" s="12">
+        <v>16</v>
+      </c>
+      <c r="G17" s="12">
+        <v>22</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="3"/>
+        <v>4.16</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="3"/>
+        <v>18.72</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="3"/>
+        <v>16.64</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="3"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="4"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="12">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12">
+        <v>10</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="3"/>
+        <v>7.28</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="3"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="3"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="3"/>
+        <v>10.4</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="4"/>
+        <v>11.180000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12">
+        <v>48</v>
+      </c>
+      <c r="G19" s="12">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" ref="H19:K21" si="5">D19*1.04</f>
+        <v>12.48</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="5"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="5"/>
+        <v>49.92</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="5"/>
+        <v>17.68</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="4"/>
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="12">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12">
+        <v>33</v>
+      </c>
+      <c r="F20" s="12">
+        <v>29</v>
+      </c>
+      <c r="G20" s="12">
+        <v>32</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="5"/>
+        <v>7.28</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="5"/>
+        <v>34.32</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="5"/>
+        <v>30.16</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="5"/>
+        <v>33.28</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="4"/>
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="12">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12">
+        <v>17</v>
+      </c>
+      <c r="F21" s="12">
+        <v>22</v>
+      </c>
+      <c r="G21" s="12">
+        <v>17</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="5"/>
+        <v>9.36</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="5"/>
+        <v>17.68</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="5"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="5"/>
+        <v>17.68</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="4"/>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12">
+        <v>21</v>
+      </c>
+      <c r="G22" s="12">
+        <v>5</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" ref="H22:K24" si="6">D22*1.04</f>
+        <v>9.36</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="6"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="6"/>
+        <v>21.84</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="12">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12">
+        <v>22</v>
+      </c>
+      <c r="F23" s="12">
+        <v>29</v>
+      </c>
+      <c r="G23" s="12">
+        <v>4</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="6"/>
+        <v>6.24</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="6"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="6"/>
+        <v>30.16</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="6"/>
+        <v>4.16</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="4"/>
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="12">
+        <v>7</v>
+      </c>
+      <c r="E24" s="12">
+        <v>20</v>
+      </c>
+      <c r="F24" s="12">
+        <v>11</v>
+      </c>
+      <c r="G24" s="12">
+        <v>11</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="6"/>
+        <v>7.28</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="6"/>
+        <v>20.8</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="6"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="6"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="4"/>
+        <v>12.740000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12">
+        <v>8</v>
+      </c>
+      <c r="E25" s="12">
+        <v>11</v>
+      </c>
+      <c r="F25" s="12">
+        <v>22</v>
+      </c>
+      <c r="G25" s="12">
+        <v>19</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" ref="H25:K27" si="7">D25*1.04</f>
+        <v>8.32</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="7"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="7"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="7"/>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="4"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="12">
+        <v>22</v>
+      </c>
+      <c r="E26" s="12">
+        <v>14</v>
+      </c>
+      <c r="F26" s="12">
+        <v>22</v>
+      </c>
+      <c r="G26" s="12">
+        <v>16</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="7"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="7"/>
+        <v>14.56</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="7"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="7"/>
+        <v>16.64</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="4"/>
+        <v>19.240000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="12">
+        <v>10</v>
+      </c>
+      <c r="E27" s="12">
+        <v>25</v>
+      </c>
+      <c r="F27" s="12">
+        <v>17</v>
+      </c>
+      <c r="G27" s="12">
+        <v>12</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="7"/>
+        <v>10.4</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="7"/>
+        <v>17.68</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="7"/>
+        <v>12.48</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="4"/>
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="12">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12">
+        <v>25</v>
+      </c>
+      <c r="F28" s="12">
+        <v>15</v>
+      </c>
+      <c r="G28" s="12">
+        <v>10</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" ref="H28:K30" si="8">D28*1.04</f>
+        <v>6.24</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="8"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="8"/>
+        <v>10.4</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="4"/>
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="12">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12">
+        <v>7</v>
+      </c>
+      <c r="F29" s="12">
+        <v>21</v>
+      </c>
+      <c r="G29" s="12">
+        <v>6</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="8"/>
+        <v>3.12</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="8"/>
+        <v>7.28</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="8"/>
+        <v>21.84</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="8"/>
+        <v>6.24</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="4"/>
+        <v>9.620000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="12">
+        <v>7</v>
+      </c>
+      <c r="E30" s="12">
+        <v>21</v>
+      </c>
+      <c r="F30" s="12">
+        <v>7</v>
+      </c>
+      <c r="G30" s="12">
+        <v>12</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="8"/>
+        <v>7.28</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="8"/>
+        <v>21.84</v>
+      </c>
+      <c r="J30" s="11">
+        <f t="shared" si="8"/>
+        <v>7.28</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="8"/>
+        <v>12.48</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="4"/>
+        <v>12.219999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12">
+        <v>15</v>
+      </c>
+      <c r="E31" s="12">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12">
+        <v>16</v>
+      </c>
+      <c r="G31" s="12">
+        <v>17</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" ref="H31:K33" si="9">D31*1.04</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="9"/>
+        <v>12.48</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="9"/>
+        <v>16.64</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="9"/>
+        <v>17.68</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="4"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="12">
+        <v>10</v>
+      </c>
+      <c r="E32" s="12">
+        <v>24</v>
+      </c>
+      <c r="F32" s="12">
+        <v>11</v>
+      </c>
+      <c r="G32" s="12">
+        <v>16</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="9"/>
+        <v>10.4</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="9"/>
+        <v>24.96</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" si="9"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="9"/>
+        <v>16.64</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="4"/>
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="47">
+        <v>42988</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="12">
+        <v>16</v>
+      </c>
+      <c r="E33" s="12">
+        <v>23</v>
+      </c>
+      <c r="F33" s="12">
+        <v>20</v>
+      </c>
+      <c r="G33" s="12">
+        <v>12</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="9"/>
+        <v>16.64</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="9"/>
+        <v>23.92</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" si="9"/>
+        <v>20.8</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="9"/>
+        <v>12.48</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="4"/>
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>73</v>
+      </c>
+      <c r="E34" s="12">
+        <v>87</v>
+      </c>
+      <c r="F34" s="12">
+        <v>74</v>
+      </c>
+      <c r="G34" s="12">
+        <v>76</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" ref="H34:K36" si="10">D34*1.04</f>
+        <v>75.92</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="10"/>
+        <v>90.48</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="10"/>
+        <v>76.960000000000008</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="10"/>
+        <v>79.040000000000006</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="4"/>
+        <v>80.600000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="12">
+        <v>64</v>
+      </c>
+      <c r="E35" s="12">
+        <v>84</v>
+      </c>
+      <c r="F35" s="12">
+        <v>86</v>
+      </c>
+      <c r="G35" s="12">
+        <v>92</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="10"/>
+        <v>66.56</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="10"/>
+        <v>87.36</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="10"/>
+        <v>89.44</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="10"/>
+        <v>95.68</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="4"/>
+        <v>84.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="12">
+        <v>79</v>
+      </c>
+      <c r="E36" s="12">
+        <v>89</v>
+      </c>
+      <c r="F36" s="12">
+        <v>84</v>
+      </c>
+      <c r="G36" s="12">
+        <v>74</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="10"/>
+        <v>82.16</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="10"/>
+        <v>92.56</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="10"/>
+        <v>87.36</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="10"/>
+        <v>76.960000000000008</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="4"/>
+        <v>84.759999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="12">
+        <v>77</v>
+      </c>
+      <c r="E37" s="12">
+        <v>87</v>
+      </c>
+      <c r="F37" s="12">
+        <v>72</v>
+      </c>
+      <c r="G37" s="12">
+        <v>71</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" ref="H37:K39" si="11">D37*1.04</f>
+        <v>80.08</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="11"/>
+        <v>90.48</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="11"/>
+        <v>74.88</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="11"/>
+        <v>73.84</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="4"/>
+        <v>79.819999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="12">
+        <v>81</v>
+      </c>
+      <c r="E38" s="12">
+        <v>57</v>
+      </c>
+      <c r="F38" s="12">
+        <v>89</v>
+      </c>
+      <c r="G38" s="12">
+        <v>88</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="11"/>
+        <v>84.240000000000009</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="11"/>
+        <v>59.28</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="11"/>
+        <v>92.56</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="11"/>
+        <v>91.52000000000001</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="4"/>
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="12">
+        <v>75</v>
+      </c>
+      <c r="E39" s="12">
+        <v>89</v>
+      </c>
+      <c r="F39" s="12">
+        <v>80</v>
+      </c>
+      <c r="G39" s="12">
+        <v>84</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="11"/>
+        <v>92.56</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="11"/>
+        <v>83.2</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="11"/>
+        <v>87.36</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="4"/>
+        <v>85.28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12">
+        <v>74</v>
+      </c>
+      <c r="E40" s="12">
+        <v>80</v>
+      </c>
+      <c r="F40" s="12">
+        <v>85</v>
+      </c>
+      <c r="G40" s="12">
+        <v>76</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" ref="H40:K42" si="12">D40*1.04</f>
+        <v>76.960000000000008</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="12"/>
+        <v>83.2</v>
+      </c>
+      <c r="J40" s="11">
+        <f t="shared" si="12"/>
+        <v>88.4</v>
+      </c>
+      <c r="K40" s="11">
+        <f t="shared" si="12"/>
+        <v>79.040000000000006</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" ref="L40:L42" si="13">AVERAGE(H40:K40)</f>
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="12">
+        <v>76</v>
+      </c>
+      <c r="E41" s="12">
+        <v>76</v>
+      </c>
+      <c r="F41" s="12">
+        <v>82</v>
+      </c>
+      <c r="G41" s="12">
+        <v>87</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="12"/>
+        <v>79.040000000000006</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="12"/>
+        <v>79.040000000000006</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="12"/>
+        <v>85.28</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" si="12"/>
+        <v>90.48</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="13"/>
+        <v>83.460000000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="12">
+        <v>80</v>
+      </c>
+      <c r="E42" s="12">
+        <v>80</v>
+      </c>
+      <c r="F42" s="12">
+        <v>80</v>
+      </c>
+      <c r="G42" s="12">
+        <v>86</v>
+      </c>
+      <c r="H42" s="11">
+        <f>D42*1.04</f>
+        <v>83.2</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="12"/>
+        <v>83.2</v>
+      </c>
+      <c r="J42" s="11">
+        <f t="shared" si="12"/>
+        <v>83.2</v>
+      </c>
+      <c r="K42" s="11">
+        <f t="shared" si="12"/>
+        <v>89.44</v>
+      </c>
+      <c r="L42" s="12">
+        <f t="shared" si="13"/>
+        <v>84.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="12">
+        <v>44</v>
+      </c>
+      <c r="E43" s="12">
+        <v>59</v>
+      </c>
+      <c r="F43" s="12">
+        <v>59</v>
+      </c>
+      <c r="G43" s="12">
+        <v>69</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" ref="H43:K45" si="14">D43*1.04</f>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="14"/>
+        <v>61.36</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" si="14"/>
+        <v>61.36</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="14"/>
+        <v>71.760000000000005</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" ref="L43:L45" si="15">AVERAGE(H43:K43)</f>
+        <v>60.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="12">
+        <v>68</v>
+      </c>
+      <c r="E44" s="12">
+        <v>51</v>
+      </c>
+      <c r="F44" s="12">
+        <v>68</v>
+      </c>
+      <c r="G44" s="12">
+        <v>59</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="14"/>
+        <v>70.72</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="14"/>
+        <v>53.04</v>
+      </c>
+      <c r="J44" s="11">
+        <f t="shared" si="14"/>
+        <v>70.72</v>
+      </c>
+      <c r="K44" s="11">
+        <f t="shared" si="14"/>
+        <v>61.36</v>
+      </c>
+      <c r="L44" s="12">
+        <f t="shared" si="15"/>
+        <v>63.959999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="12">
+        <v>65</v>
+      </c>
+      <c r="E45" s="12">
+        <v>69</v>
+      </c>
+      <c r="F45" s="12">
+        <v>91</v>
+      </c>
+      <c r="G45" s="12">
+        <v>73</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="14"/>
+        <v>67.600000000000009</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="14"/>
+        <v>71.760000000000005</v>
+      </c>
+      <c r="J45" s="11">
+        <f t="shared" si="14"/>
+        <v>94.64</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="14"/>
+        <v>75.92</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" si="15"/>
+        <v>77.48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="12">
+        <v>66</v>
+      </c>
+      <c r="E46" s="12">
+        <v>76</v>
+      </c>
+      <c r="F46" s="12">
+        <v>77</v>
+      </c>
+      <c r="G46" s="12">
+        <v>67</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" ref="H46:K48" si="16">D46*1.04</f>
+        <v>68.64</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="16"/>
+        <v>79.040000000000006</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" si="16"/>
+        <v>80.08</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="16"/>
+        <v>69.680000000000007</v>
+      </c>
+      <c r="L46" s="12">
+        <f t="shared" ref="L46:L48" si="17">AVERAGE(H46:K46)</f>
+        <v>74.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="12">
+        <v>81</v>
+      </c>
+      <c r="E47" s="12">
+        <v>69</v>
+      </c>
+      <c r="F47" s="12">
+        <v>76</v>
+      </c>
+      <c r="G47" s="12">
+        <v>67</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="16"/>
+        <v>84.240000000000009</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="16"/>
+        <v>71.760000000000005</v>
+      </c>
+      <c r="J47" s="11">
+        <f t="shared" si="16"/>
+        <v>79.040000000000006</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" si="16"/>
+        <v>69.680000000000007</v>
+      </c>
+      <c r="L47" s="12">
+        <f t="shared" si="17"/>
+        <v>76.180000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="12">
+        <v>74</v>
+      </c>
+      <c r="E48" s="12">
+        <v>81</v>
+      </c>
+      <c r="F48" s="12">
+        <v>76</v>
+      </c>
+      <c r="G48" s="12">
+        <v>65</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="16"/>
+        <v>76.960000000000008</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="16"/>
+        <v>84.240000000000009</v>
+      </c>
+      <c r="J48" s="11">
+        <f t="shared" si="16"/>
+        <v>79.040000000000006</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="16"/>
+        <v>67.600000000000009</v>
+      </c>
+      <c r="L48" s="12">
+        <f t="shared" si="17"/>
+        <v>76.960000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="11">
+        <v>86</v>
+      </c>
+      <c r="E49" s="11">
+        <v>90</v>
+      </c>
+      <c r="F49" s="11">
+        <v>89</v>
+      </c>
+      <c r="G49" s="11">
+        <v>79</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" ref="H49:K51" si="18">D49*1.04</f>
+        <v>89.44</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" si="18"/>
+        <v>93.600000000000009</v>
+      </c>
+      <c r="J49" s="11">
+        <f t="shared" si="18"/>
+        <v>92.56</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" si="18"/>
+        <v>82.16</v>
+      </c>
+      <c r="L49" s="12">
+        <f t="shared" ref="L49:L51" si="19">AVERAGE(H49:K49)</f>
+        <v>89.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="11">
+        <v>79</v>
+      </c>
+      <c r="E50" s="11">
+        <v>87</v>
+      </c>
+      <c r="F50" s="11">
+        <v>83</v>
+      </c>
+      <c r="G50" s="11">
+        <v>84</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="18"/>
+        <v>82.16</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="18"/>
+        <v>90.48</v>
+      </c>
+      <c r="J50" s="11">
+        <f t="shared" si="18"/>
+        <v>86.320000000000007</v>
+      </c>
+      <c r="K50" s="11">
+        <f t="shared" si="18"/>
+        <v>87.36</v>
+      </c>
+      <c r="L50" s="12">
+        <f t="shared" si="19"/>
+        <v>86.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="47">
+        <v>43012</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="11">
+        <v>90</v>
+      </c>
+      <c r="E51" s="11">
+        <v>81</v>
+      </c>
+      <c r="F51" s="11">
+        <v>80</v>
+      </c>
+      <c r="G51" s="11">
+        <v>70</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="18"/>
+        <v>93.600000000000009</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="18"/>
+        <v>84.240000000000009</v>
+      </c>
+      <c r="J51" s="11">
+        <f t="shared" si="18"/>
+        <v>83.2</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="18"/>
+        <v>72.8</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="19"/>
+        <v>83.460000000000008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="50">
+        <v>51</v>
+      </c>
+      <c r="E52" s="50">
+        <v>59</v>
+      </c>
+      <c r="F52" s="50">
+        <v>55</v>
+      </c>
+      <c r="G52" s="23">
+        <v>55</v>
+      </c>
+      <c r="H52" s="41">
+        <f t="shared" ref="H52:K54" si="20">D52*1.04</f>
+        <v>53.04</v>
+      </c>
+      <c r="I52" s="41">
+        <f t="shared" si="20"/>
+        <v>61.36</v>
+      </c>
+      <c r="J52" s="41">
+        <f t="shared" si="20"/>
+        <v>57.2</v>
+      </c>
+      <c r="K52" s="41">
+        <f t="shared" si="20"/>
+        <v>57.2</v>
+      </c>
+      <c r="L52" s="41">
+        <f t="shared" ref="L52:L57" si="21">AVERAGE(H52:K52)</f>
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50">
+        <v>41</v>
+      </c>
+      <c r="E53" s="50">
+        <v>49</v>
+      </c>
+      <c r="F53" s="50">
+        <v>62</v>
+      </c>
+      <c r="G53" s="23">
+        <v>67</v>
+      </c>
+      <c r="H53" s="41">
+        <f t="shared" si="20"/>
+        <v>42.64</v>
+      </c>
+      <c r="I53" s="41">
+        <f t="shared" si="20"/>
+        <v>50.96</v>
+      </c>
+      <c r="J53" s="41">
+        <f t="shared" si="20"/>
+        <v>64.48</v>
+      </c>
+      <c r="K53" s="41">
+        <f t="shared" si="20"/>
+        <v>69.680000000000007</v>
+      </c>
+      <c r="L53" s="41">
+        <f t="shared" si="21"/>
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50">
+        <v>55</v>
+      </c>
+      <c r="E54" s="50">
+        <v>57</v>
+      </c>
+      <c r="F54" s="50">
+        <v>56</v>
+      </c>
+      <c r="G54" s="23">
+        <v>62</v>
+      </c>
+      <c r="H54" s="41">
+        <f t="shared" si="20"/>
+        <v>57.2</v>
+      </c>
+      <c r="I54" s="41">
+        <f t="shared" si="20"/>
+        <v>59.28</v>
+      </c>
+      <c r="J54" s="41">
+        <f t="shared" si="20"/>
+        <v>58.24</v>
+      </c>
+      <c r="K54" s="41">
+        <f t="shared" si="20"/>
+        <v>64.48</v>
+      </c>
+      <c r="L54" s="41">
+        <f t="shared" si="21"/>
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="23">
+        <v>32</v>
+      </c>
+      <c r="E55" s="23">
+        <v>56</v>
+      </c>
+      <c r="F55" s="23">
+        <v>54</v>
+      </c>
+      <c r="G55" s="23">
+        <v>58</v>
+      </c>
+      <c r="H55" s="41">
+        <f t="shared" ref="H55:K57" si="22">D55*1.04</f>
+        <v>33.28</v>
+      </c>
+      <c r="I55" s="41">
+        <f t="shared" si="22"/>
+        <v>58.24</v>
+      </c>
+      <c r="J55" s="41">
+        <f t="shared" si="22"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="K55" s="41">
+        <f t="shared" si="22"/>
+        <v>60.32</v>
+      </c>
+      <c r="L55" s="41">
+        <f t="shared" si="21"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="23">
+        <v>56</v>
+      </c>
+      <c r="E56" s="23">
+        <v>33</v>
+      </c>
+      <c r="F56" s="23">
+        <v>56</v>
+      </c>
+      <c r="G56" s="23">
+        <v>57</v>
+      </c>
+      <c r="H56" s="41">
+        <f t="shared" si="22"/>
+        <v>58.24</v>
+      </c>
+      <c r="I56" s="41">
+        <f t="shared" si="22"/>
+        <v>34.32</v>
+      </c>
+      <c r="J56" s="41">
+        <f t="shared" si="22"/>
+        <v>58.24</v>
+      </c>
+      <c r="K56" s="41">
+        <f t="shared" si="22"/>
+        <v>59.28</v>
+      </c>
+      <c r="L56" s="41">
+        <f t="shared" si="21"/>
+        <v>52.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="23">
+        <v>59</v>
+      </c>
+      <c r="E57" s="23">
+        <v>55</v>
+      </c>
+      <c r="F57" s="23">
+        <v>52</v>
+      </c>
+      <c r="G57" s="23">
+        <v>64</v>
+      </c>
+      <c r="H57" s="41">
+        <f t="shared" si="22"/>
+        <v>61.36</v>
+      </c>
+      <c r="I57" s="41">
+        <f t="shared" si="22"/>
+        <v>57.2</v>
+      </c>
+      <c r="J57" s="41">
+        <f t="shared" si="22"/>
+        <v>54.08</v>
+      </c>
+      <c r="K57" s="41">
+        <f t="shared" si="22"/>
+        <v>66.56</v>
+      </c>
+      <c r="L57" s="41">
+        <f t="shared" si="21"/>
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="23">
+        <v>58</v>
+      </c>
+      <c r="E58" s="23">
+        <v>39</v>
+      </c>
+      <c r="F58" s="23">
+        <v>52</v>
+      </c>
+      <c r="G58" s="23">
+        <v>56</v>
+      </c>
+      <c r="H58" s="41">
+        <f t="shared" ref="H58:K60" si="23">D58*1.04</f>
+        <v>60.32</v>
+      </c>
+      <c r="I58" s="41">
+        <f t="shared" si="23"/>
+        <v>40.56</v>
+      </c>
+      <c r="J58" s="41">
+        <f t="shared" si="23"/>
+        <v>54.08</v>
+      </c>
+      <c r="K58" s="41">
+        <f t="shared" si="23"/>
+        <v>58.24</v>
+      </c>
+      <c r="L58" s="43">
+        <f t="shared" ref="L58:L60" si="24">AVERAGE(H58:K58)</f>
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="50"/>
+      <c r="D59" s="23">
+        <v>49</v>
+      </c>
+      <c r="E59" s="23">
+        <v>52</v>
+      </c>
+      <c r="F59" s="23">
+        <v>50</v>
+      </c>
+      <c r="G59" s="23">
+        <v>57</v>
+      </c>
+      <c r="H59" s="41">
+        <f t="shared" si="23"/>
+        <v>50.96</v>
+      </c>
+      <c r="I59" s="41">
+        <f t="shared" si="23"/>
+        <v>54.08</v>
+      </c>
+      <c r="J59" s="41">
+        <f t="shared" si="23"/>
+        <v>52</v>
+      </c>
+      <c r="K59" s="41">
+        <f t="shared" si="23"/>
+        <v>59.28</v>
+      </c>
+      <c r="L59" s="43">
+        <f t="shared" si="24"/>
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="50"/>
+      <c r="D60" s="23">
+        <v>41</v>
+      </c>
+      <c r="E60" s="23">
+        <v>43</v>
+      </c>
+      <c r="F60" s="23">
+        <v>49</v>
+      </c>
+      <c r="G60" s="23">
+        <v>45</v>
+      </c>
+      <c r="H60" s="41">
+        <f>D60*1.04</f>
+        <v>42.64</v>
+      </c>
+      <c r="I60" s="41">
+        <f t="shared" si="23"/>
+        <v>44.72</v>
+      </c>
+      <c r="J60" s="41">
+        <f t="shared" si="23"/>
+        <v>50.96</v>
+      </c>
+      <c r="K60" s="41">
+        <f t="shared" si="23"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="L60" s="43">
+        <f t="shared" si="24"/>
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="50">
+        <v>36</v>
+      </c>
+      <c r="E61" s="50">
+        <v>48</v>
+      </c>
+      <c r="F61" s="50">
+        <v>45</v>
+      </c>
+      <c r="G61" s="23">
+        <v>67</v>
+      </c>
+      <c r="H61" s="41">
+        <f t="shared" ref="H61:K63" si="25">D61*1.04</f>
+        <v>37.44</v>
+      </c>
+      <c r="I61" s="41">
+        <f t="shared" si="25"/>
+        <v>49.92</v>
+      </c>
+      <c r="J61" s="41">
+        <f t="shared" si="25"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="K61" s="41">
+        <f t="shared" si="25"/>
+        <v>69.680000000000007</v>
+      </c>
+      <c r="L61" s="43">
+        <f t="shared" ref="L61:L63" si="26">AVERAGE(H61:K61)</f>
+        <v>50.96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50">
+        <v>49</v>
+      </c>
+      <c r="E62" s="50">
+        <v>42</v>
+      </c>
+      <c r="F62" s="50">
+        <v>50</v>
+      </c>
+      <c r="G62" s="23">
+        <v>41</v>
+      </c>
+      <c r="H62" s="41">
+        <f t="shared" si="25"/>
+        <v>50.96</v>
+      </c>
+      <c r="I62" s="41">
+        <f t="shared" si="25"/>
+        <v>43.68</v>
+      </c>
+      <c r="J62" s="41">
+        <f t="shared" si="25"/>
+        <v>52</v>
+      </c>
+      <c r="K62" s="41">
+        <f t="shared" si="25"/>
+        <v>42.64</v>
+      </c>
+      <c r="L62" s="43">
+        <f t="shared" si="26"/>
+        <v>47.319999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50">
+        <v>52</v>
+      </c>
+      <c r="E63" s="50">
+        <v>32</v>
+      </c>
+      <c r="F63" s="50">
+        <v>89</v>
+      </c>
+      <c r="G63" s="23">
+        <v>61</v>
+      </c>
+      <c r="H63" s="41">
+        <f t="shared" si="25"/>
+        <v>54.08</v>
+      </c>
+      <c r="I63" s="41">
+        <f t="shared" si="25"/>
+        <v>33.28</v>
+      </c>
+      <c r="J63" s="41">
+        <f t="shared" si="25"/>
+        <v>92.56</v>
+      </c>
+      <c r="K63" s="41">
+        <f t="shared" si="25"/>
+        <v>63.440000000000005</v>
+      </c>
+      <c r="L63" s="43">
+        <f t="shared" si="26"/>
+        <v>60.84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="23">
+        <v>47</v>
+      </c>
+      <c r="E64" s="23">
+        <v>50</v>
+      </c>
+      <c r="F64" s="23">
+        <v>53</v>
+      </c>
+      <c r="G64" s="23">
+        <v>58</v>
+      </c>
+      <c r="H64" s="41">
+        <f t="shared" ref="H64:K66" si="27">D64*1.04</f>
+        <v>48.88</v>
+      </c>
+      <c r="I64" s="41">
+        <f t="shared" si="27"/>
+        <v>52</v>
+      </c>
+      <c r="J64" s="41">
+        <f t="shared" si="27"/>
+        <v>55.120000000000005</v>
+      </c>
+      <c r="K64" s="41">
+        <f t="shared" si="27"/>
+        <v>60.32</v>
+      </c>
+      <c r="L64" s="43">
+        <f t="shared" ref="L64:L66" si="28">AVERAGE(H64:K64)</f>
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="50"/>
+      <c r="D65" s="23">
+        <v>54</v>
+      </c>
+      <c r="E65" s="23">
+        <v>59</v>
+      </c>
+      <c r="F65" s="23">
+        <v>67</v>
+      </c>
+      <c r="G65" s="23">
+        <v>59</v>
+      </c>
+      <c r="H65" s="41">
+        <f t="shared" si="27"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="I65" s="41">
+        <f t="shared" si="27"/>
+        <v>61.36</v>
+      </c>
+      <c r="J65" s="41">
+        <f t="shared" si="27"/>
+        <v>69.680000000000007</v>
+      </c>
+      <c r="K65" s="41">
+        <f t="shared" si="27"/>
+        <v>61.36</v>
+      </c>
+      <c r="L65" s="43">
+        <f t="shared" si="28"/>
+        <v>62.14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="50"/>
+      <c r="D66" s="23">
+        <v>57</v>
+      </c>
+      <c r="E66" s="23">
+        <v>58</v>
+      </c>
+      <c r="F66" s="23">
+        <v>59</v>
+      </c>
+      <c r="G66" s="23">
+        <v>65</v>
+      </c>
+      <c r="H66" s="41">
+        <f t="shared" si="27"/>
+        <v>59.28</v>
+      </c>
+      <c r="I66" s="41">
+        <f t="shared" si="27"/>
+        <v>60.32</v>
+      </c>
+      <c r="J66" s="41">
+        <f t="shared" si="27"/>
+        <v>61.36</v>
+      </c>
+      <c r="K66" s="41">
+        <f t="shared" si="27"/>
+        <v>67.600000000000009</v>
+      </c>
+      <c r="L66" s="43">
+        <f t="shared" si="28"/>
+        <v>62.14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="23">
+        <v>71</v>
+      </c>
+      <c r="E67" s="23">
+        <v>52</v>
+      </c>
+      <c r="F67" s="23">
+        <v>67</v>
+      </c>
+      <c r="G67" s="23">
+        <v>40</v>
+      </c>
+      <c r="H67" s="41">
+        <f t="shared" ref="H67:K69" si="29">D67*1.04</f>
+        <v>73.84</v>
+      </c>
+      <c r="I67" s="41">
+        <f t="shared" si="29"/>
+        <v>54.08</v>
+      </c>
+      <c r="J67" s="41">
+        <f t="shared" si="29"/>
+        <v>69.680000000000007</v>
+      </c>
+      <c r="K67" s="41">
+        <f t="shared" si="29"/>
+        <v>41.6</v>
+      </c>
+      <c r="L67" s="43">
+        <f t="shared" ref="L67:L69" si="30">AVERAGE(H67:K67)</f>
+        <v>59.800000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="50"/>
+      <c r="D68" s="23">
+        <v>61</v>
+      </c>
+      <c r="E68" s="23">
+        <v>63</v>
+      </c>
+      <c r="F68" s="23">
+        <v>54</v>
+      </c>
+      <c r="G68" s="23">
+        <v>59</v>
+      </c>
+      <c r="H68" s="41">
+        <f t="shared" si="29"/>
+        <v>63.440000000000005</v>
+      </c>
+      <c r="I68" s="41">
+        <f t="shared" si="29"/>
+        <v>65.52</v>
+      </c>
+      <c r="J68" s="41">
+        <f t="shared" si="29"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="K68" s="41">
+        <f t="shared" si="29"/>
+        <v>61.36</v>
+      </c>
+      <c r="L68" s="43">
+        <f t="shared" si="30"/>
+        <v>61.620000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="53">
+        <v>43069</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="50"/>
+      <c r="D69" s="23">
+        <v>62</v>
+      </c>
+      <c r="E69" s="23">
+        <v>54</v>
+      </c>
+      <c r="F69" s="23">
+        <v>55</v>
+      </c>
+      <c r="G69" s="23">
+        <v>62</v>
+      </c>
+      <c r="H69" s="41">
+        <f t="shared" si="29"/>
+        <v>64.48</v>
+      </c>
+      <c r="I69" s="41">
+        <f t="shared" si="29"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="J69" s="41">
+        <f t="shared" si="29"/>
+        <v>57.2</v>
+      </c>
+      <c r="K69" s="41">
+        <f t="shared" si="29"/>
+        <v>64.48</v>
+      </c>
+      <c r="L69" s="43">
+        <f t="shared" si="30"/>
+        <v>60.580000000000013</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="44">
+        <v>45</v>
+      </c>
+      <c r="E70" s="44">
+        <v>56</v>
+      </c>
+      <c r="F70" s="44">
+        <v>39</v>
+      </c>
+      <c r="G70" s="23">
+        <v>49</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" ref="H70:K72" si="31">D70*1.04</f>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="I70" s="11">
+        <f t="shared" si="31"/>
+        <v>58.24</v>
+      </c>
+      <c r="J70" s="11">
+        <f t="shared" si="31"/>
+        <v>40.56</v>
+      </c>
+      <c r="K70" s="11">
+        <f t="shared" si="31"/>
+        <v>50.96</v>
+      </c>
+      <c r="L70" s="11">
+        <f t="shared" ref="L70:L78" si="32">AVERAGE(H70:K70)</f>
+        <v>49.140000000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="45"/>
+      <c r="D71" s="44">
+        <v>30</v>
+      </c>
+      <c r="E71" s="44">
+        <v>48</v>
+      </c>
+      <c r="F71" s="44">
+        <v>59</v>
+      </c>
+      <c r="G71" s="23">
+        <v>63</v>
+      </c>
+      <c r="H71" s="11">
+        <f t="shared" si="31"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="I71" s="11">
+        <f t="shared" si="31"/>
+        <v>49.92</v>
+      </c>
+      <c r="J71" s="11">
+        <f t="shared" si="31"/>
+        <v>61.36</v>
+      </c>
+      <c r="K71" s="11">
+        <f t="shared" si="31"/>
+        <v>65.52</v>
+      </c>
+      <c r="L71" s="11">
+        <f t="shared" si="32"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B72" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="45"/>
+      <c r="D72" s="44">
+        <v>51</v>
+      </c>
+      <c r="E72" s="44">
+        <v>61</v>
+      </c>
+      <c r="F72" s="44">
+        <v>54</v>
+      </c>
+      <c r="G72" s="23">
+        <v>63</v>
+      </c>
+      <c r="H72" s="11">
+        <f t="shared" si="31"/>
+        <v>53.04</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="31"/>
+        <v>63.440000000000005</v>
+      </c>
+      <c r="J72" s="11">
+        <f t="shared" si="31"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="31"/>
+        <v>65.52</v>
+      </c>
+      <c r="L72" s="11">
+        <f t="shared" si="32"/>
+        <v>59.540000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="44">
+        <v>31</v>
+      </c>
+      <c r="E73" s="44">
+        <v>34</v>
+      </c>
+      <c r="F73" s="44">
+        <v>46</v>
+      </c>
+      <c r="G73" s="44">
+        <v>44</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" ref="H73:K75" si="33">D73*1.04</f>
+        <v>32.24</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" si="33"/>
+        <v>35.36</v>
+      </c>
+      <c r="J73" s="11">
+        <f t="shared" si="33"/>
+        <v>47.84</v>
+      </c>
+      <c r="K73" s="11">
+        <f t="shared" si="33"/>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="L73" s="11">
+        <f t="shared" si="32"/>
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="45"/>
+      <c r="D74" s="44">
+        <v>53</v>
+      </c>
+      <c r="E74" s="44">
+        <v>31</v>
+      </c>
+      <c r="F74" s="44">
+        <v>47</v>
+      </c>
+      <c r="G74" s="44">
+        <v>45</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="33"/>
+        <v>55.120000000000005</v>
+      </c>
+      <c r="I74" s="11">
+        <f t="shared" si="33"/>
+        <v>32.24</v>
+      </c>
+      <c r="J74" s="11">
+        <f t="shared" si="33"/>
+        <v>48.88</v>
+      </c>
+      <c r="K74" s="11">
+        <f t="shared" si="33"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="L74" s="11">
+        <f t="shared" si="32"/>
+        <v>45.760000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="45"/>
+      <c r="D75" s="44">
+        <v>62</v>
+      </c>
+      <c r="E75" s="44">
+        <v>64</v>
+      </c>
+      <c r="F75" s="44">
+        <v>49</v>
+      </c>
+      <c r="G75" s="44">
+        <v>40</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="33"/>
+        <v>64.48</v>
+      </c>
+      <c r="I75" s="11">
+        <f t="shared" si="33"/>
+        <v>66.56</v>
+      </c>
+      <c r="J75" s="11">
+        <f t="shared" si="33"/>
+        <v>50.96</v>
+      </c>
+      <c r="K75" s="11">
+        <f t="shared" si="33"/>
+        <v>41.6</v>
+      </c>
+      <c r="L75" s="11">
+        <f t="shared" si="32"/>
+        <v>55.900000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="44">
+        <v>40</v>
+      </c>
+      <c r="E76" s="44">
+        <v>51</v>
+      </c>
+      <c r="F76" s="44">
+        <v>46</v>
+      </c>
+      <c r="G76" s="44">
+        <v>56</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" ref="H76:K78" si="34">D76*1.04</f>
+        <v>41.6</v>
+      </c>
+      <c r="I76" s="11">
+        <f t="shared" si="34"/>
+        <v>53.04</v>
+      </c>
+      <c r="J76" s="11">
+        <f t="shared" si="34"/>
+        <v>47.84</v>
+      </c>
+      <c r="K76" s="11">
+        <f t="shared" si="34"/>
+        <v>58.24</v>
+      </c>
+      <c r="L76" s="11">
+        <f t="shared" si="32"/>
+        <v>50.180000000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="45"/>
+      <c r="D77" s="44">
+        <v>40</v>
+      </c>
+      <c r="E77" s="44">
+        <v>45</v>
+      </c>
+      <c r="F77" s="44">
+        <v>60</v>
+      </c>
+      <c r="G77" s="44">
+        <v>45</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="34"/>
+        <v>41.6</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" si="34"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="J77" s="11">
+        <f t="shared" si="34"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="K77" s="11">
+        <f t="shared" si="34"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="L77" s="11">
+        <f t="shared" si="32"/>
+        <v>49.400000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="45"/>
+      <c r="D78" s="44">
+        <v>33</v>
+      </c>
+      <c r="E78" s="44">
+        <v>44</v>
+      </c>
+      <c r="F78" s="44">
+        <v>48</v>
+      </c>
+      <c r="G78" s="44">
+        <v>59</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="34"/>
+        <v>34.32</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" si="34"/>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="J78" s="11">
+        <f t="shared" si="34"/>
+        <v>49.92</v>
+      </c>
+      <c r="K78" s="11">
+        <f t="shared" si="34"/>
+        <v>61.36</v>
+      </c>
+      <c r="L78" s="11">
+        <f t="shared" si="32"/>
+        <v>47.84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="44">
+        <v>32</v>
+      </c>
+      <c r="E79" s="44">
+        <v>43</v>
+      </c>
+      <c r="F79" s="44">
+        <v>37</v>
+      </c>
+      <c r="G79" s="23">
+        <v>51</v>
+      </c>
+      <c r="H79" s="11">
+        <f t="shared" ref="H79:K81" si="35">D79*1.04</f>
+        <v>33.28</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" si="35"/>
+        <v>44.72</v>
+      </c>
+      <c r="J79" s="11">
+        <f t="shared" si="35"/>
+        <v>38.480000000000004</v>
+      </c>
+      <c r="K79" s="11">
+        <f t="shared" si="35"/>
+        <v>53.04</v>
+      </c>
+      <c r="L79" s="12">
+        <f t="shared" ref="L79:L81" si="36">AVERAGE(H79:K79)</f>
+        <v>42.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="45"/>
+      <c r="D80" s="44">
+        <v>45</v>
+      </c>
+      <c r="E80" s="44">
+        <v>32</v>
+      </c>
+      <c r="F80" s="44">
+        <v>38</v>
+      </c>
+      <c r="G80" s="23">
+        <v>31</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" si="35"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="I80" s="11">
+        <f t="shared" si="35"/>
+        <v>33.28</v>
+      </c>
+      <c r="J80" s="11">
+        <f t="shared" si="35"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="K80" s="11">
+        <f t="shared" si="35"/>
+        <v>32.24</v>
+      </c>
+      <c r="L80" s="12">
+        <f t="shared" si="36"/>
+        <v>37.960000000000008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="45"/>
+      <c r="D81" s="44">
+        <v>42</v>
+      </c>
+      <c r="E81" s="44">
+        <v>39</v>
+      </c>
+      <c r="F81" s="44">
+        <v>23</v>
+      </c>
+      <c r="G81" s="23">
+        <v>91</v>
+      </c>
+      <c r="H81" s="11">
+        <f>D81*1.04</f>
+        <v>43.68</v>
+      </c>
+      <c r="I81" s="11">
+        <f t="shared" si="35"/>
+        <v>40.56</v>
+      </c>
+      <c r="J81" s="11">
+        <f t="shared" si="35"/>
+        <v>23.92</v>
+      </c>
+      <c r="K81" s="11">
+        <f t="shared" si="35"/>
+        <v>94.64</v>
+      </c>
+      <c r="L81" s="12">
+        <f t="shared" si="36"/>
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="44">
+        <v>48</v>
+      </c>
+      <c r="E82" s="44">
+        <v>43</v>
+      </c>
+      <c r="F82" s="44">
+        <v>52</v>
+      </c>
+      <c r="G82" s="44">
+        <v>43</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" ref="H82:K84" si="37">D82*1.04</f>
+        <v>49.92</v>
+      </c>
+      <c r="I82" s="11">
+        <f t="shared" si="37"/>
+        <v>44.72</v>
+      </c>
+      <c r="J82" s="11">
+        <f t="shared" si="37"/>
+        <v>54.08</v>
+      </c>
+      <c r="K82" s="11">
+        <f t="shared" si="37"/>
+        <v>44.72</v>
+      </c>
+      <c r="L82" s="12">
+        <f t="shared" ref="L82:L84" si="38">AVERAGE(H82:K82)</f>
+        <v>48.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="45"/>
+      <c r="D83" s="44">
+        <v>37</v>
+      </c>
+      <c r="E83" s="44">
+        <v>39</v>
+      </c>
+      <c r="F83" s="44">
+        <v>40</v>
+      </c>
+      <c r="G83" s="44">
+        <v>44</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="37"/>
+        <v>38.480000000000004</v>
+      </c>
+      <c r="I83" s="11">
+        <f t="shared" si="37"/>
+        <v>40.56</v>
+      </c>
+      <c r="J83" s="11">
+        <f t="shared" si="37"/>
+        <v>41.6</v>
+      </c>
+      <c r="K83" s="11">
+        <f t="shared" si="37"/>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="L83" s="12">
+        <f t="shared" si="38"/>
+        <v>41.600000000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B84" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="45"/>
+      <c r="D84" s="44">
+        <v>44</v>
+      </c>
+      <c r="E84" s="44">
+        <v>42</v>
+      </c>
+      <c r="F84" s="44">
+        <v>65</v>
+      </c>
+      <c r="G84" s="44">
+        <v>47</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="37"/>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="I84" s="11">
+        <f t="shared" si="37"/>
+        <v>43.68</v>
+      </c>
+      <c r="J84" s="11">
+        <f t="shared" si="37"/>
+        <v>67.600000000000009</v>
+      </c>
+      <c r="K84" s="11">
+        <f t="shared" si="37"/>
+        <v>48.88</v>
+      </c>
+      <c r="L84" s="12">
+        <f t="shared" si="38"/>
+        <v>51.480000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="44">
+        <v>52</v>
+      </c>
+      <c r="E85" s="44">
+        <v>39</v>
+      </c>
+      <c r="F85" s="44">
+        <v>56</v>
+      </c>
+      <c r="G85" s="44">
+        <v>45</v>
+      </c>
+      <c r="H85" s="11">
+        <f t="shared" ref="H85:K87" si="39">D85*1.04</f>
+        <v>54.08</v>
+      </c>
+      <c r="I85" s="11">
+        <f t="shared" si="39"/>
+        <v>40.56</v>
+      </c>
+      <c r="J85" s="11">
+        <f t="shared" si="39"/>
+        <v>58.24</v>
+      </c>
+      <c r="K85" s="11">
+        <f t="shared" si="39"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" ref="L85:L87" si="40">AVERAGE(H85:K85)</f>
+        <v>49.92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="45"/>
+      <c r="D86" s="44">
+        <v>31</v>
+      </c>
+      <c r="E86" s="44">
+        <v>55</v>
+      </c>
+      <c r="F86" s="44">
+        <v>46</v>
+      </c>
+      <c r="G86" s="44">
+        <v>53</v>
+      </c>
+      <c r="H86" s="11">
+        <f t="shared" si="39"/>
+        <v>32.24</v>
+      </c>
+      <c r="I86" s="11">
+        <f t="shared" si="39"/>
+        <v>57.2</v>
+      </c>
+      <c r="J86" s="11">
+        <f t="shared" si="39"/>
+        <v>47.84</v>
+      </c>
+      <c r="K86" s="11">
+        <f t="shared" si="39"/>
+        <v>55.120000000000005</v>
+      </c>
+      <c r="L86" s="12">
+        <f t="shared" si="40"/>
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="54">
+        <v>43125</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="45"/>
+      <c r="D87" s="44">
+        <v>52</v>
+      </c>
+      <c r="E87" s="44">
+        <v>45</v>
+      </c>
+      <c r="F87" s="44">
+        <v>57</v>
+      </c>
+      <c r="G87" s="44">
+        <v>68</v>
+      </c>
+      <c r="H87" s="11">
+        <f t="shared" si="39"/>
+        <v>54.08</v>
+      </c>
+      <c r="I87" s="11">
+        <f t="shared" si="39"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="J87" s="11">
+        <f t="shared" si="39"/>
+        <v>59.28</v>
+      </c>
+      <c r="K87" s="11">
+        <f t="shared" si="39"/>
+        <v>70.72</v>
+      </c>
+      <c r="L87" s="12">
+        <f t="shared" si="40"/>
+        <v>57.72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="23">
+        <v>31</v>
+      </c>
+      <c r="E88" s="23">
+        <v>45</v>
+      </c>
+      <c r="F88" s="23">
+        <v>29</v>
+      </c>
+      <c r="G88" s="23">
+        <v>44</v>
+      </c>
+      <c r="H88" s="41">
+        <f t="shared" ref="H88:K90" si="41">D88*1.04</f>
+        <v>32.24</v>
+      </c>
+      <c r="I88" s="41">
+        <f t="shared" si="41"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="J88" s="41">
+        <f t="shared" si="41"/>
+        <v>30.16</v>
+      </c>
+      <c r="K88" s="41">
+        <f t="shared" si="41"/>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="L88" s="41">
+        <f t="shared" ref="L88:L96" si="42">AVERAGE(H88:K88)</f>
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="50"/>
+      <c r="D89" s="23">
+        <v>33</v>
+      </c>
+      <c r="E89" s="23">
+        <v>39</v>
+      </c>
+      <c r="F89" s="23">
+        <v>52</v>
+      </c>
+      <c r="G89" s="23">
+        <v>61</v>
+      </c>
+      <c r="H89" s="41">
+        <f t="shared" si="41"/>
+        <v>34.32</v>
+      </c>
+      <c r="I89" s="41">
+        <f t="shared" si="41"/>
+        <v>40.56</v>
+      </c>
+      <c r="J89" s="41">
+        <f t="shared" si="41"/>
+        <v>54.08</v>
+      </c>
+      <c r="K89" s="41">
+        <f t="shared" si="41"/>
+        <v>63.440000000000005</v>
+      </c>
+      <c r="L89" s="41">
+        <f t="shared" si="42"/>
+        <v>48.099999999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="50"/>
+      <c r="D90" s="23">
+        <v>38</v>
+      </c>
+      <c r="E90" s="23">
+        <v>59</v>
+      </c>
+      <c r="F90" s="23">
+        <v>41</v>
+      </c>
+      <c r="G90" s="23">
+        <v>49</v>
+      </c>
+      <c r="H90" s="41">
+        <f t="shared" si="41"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="I90" s="41">
+        <f t="shared" si="41"/>
+        <v>61.36</v>
+      </c>
+      <c r="J90" s="41">
+        <f t="shared" si="41"/>
+        <v>42.64</v>
+      </c>
+      <c r="K90" s="41">
+        <f t="shared" si="41"/>
+        <v>50.96</v>
+      </c>
+      <c r="L90" s="41">
+        <f t="shared" si="42"/>
+        <v>48.62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="23">
+        <v>36</v>
+      </c>
+      <c r="E91" s="23">
+        <v>39</v>
+      </c>
+      <c r="F91" s="23">
+        <v>49</v>
+      </c>
+      <c r="G91" s="23">
+        <v>37</v>
+      </c>
+      <c r="H91" s="41">
+        <f t="shared" ref="H91:K93" si="43">D91*1.04</f>
+        <v>37.44</v>
+      </c>
+      <c r="I91" s="41">
+        <f t="shared" si="43"/>
+        <v>40.56</v>
+      </c>
+      <c r="J91" s="41">
+        <f t="shared" si="43"/>
+        <v>50.96</v>
+      </c>
+      <c r="K91" s="41">
+        <f t="shared" si="43"/>
+        <v>38.480000000000004</v>
+      </c>
+      <c r="L91" s="41">
+        <f t="shared" si="42"/>
+        <v>41.86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="50"/>
+      <c r="D92" s="23">
+        <v>43</v>
+      </c>
+      <c r="E92" s="23">
+        <v>69</v>
+      </c>
+      <c r="F92" s="23">
+        <v>40</v>
+      </c>
+      <c r="G92" s="23">
+        <v>37</v>
+      </c>
+      <c r="H92" s="41">
+        <f t="shared" si="43"/>
+        <v>44.72</v>
+      </c>
+      <c r="I92" s="41">
+        <f t="shared" si="43"/>
+        <v>71.760000000000005</v>
+      </c>
+      <c r="J92" s="41">
+        <f t="shared" si="43"/>
+        <v>41.6</v>
+      </c>
+      <c r="K92" s="41">
+        <f t="shared" si="43"/>
+        <v>38.480000000000004</v>
+      </c>
+      <c r="L92" s="41">
+        <f t="shared" si="42"/>
+        <v>49.14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="50"/>
+      <c r="D93" s="23">
+        <v>46</v>
+      </c>
+      <c r="E93" s="23">
+        <v>49</v>
+      </c>
+      <c r="F93" s="23">
+        <v>47</v>
+      </c>
+      <c r="G93" s="23">
+        <v>39</v>
+      </c>
+      <c r="H93" s="41">
+        <f t="shared" si="43"/>
+        <v>47.84</v>
+      </c>
+      <c r="I93" s="41">
+        <f t="shared" si="43"/>
+        <v>50.96</v>
+      </c>
+      <c r="J93" s="41">
+        <f t="shared" si="43"/>
+        <v>48.88</v>
+      </c>
+      <c r="K93" s="41">
+        <f t="shared" si="43"/>
+        <v>40.56</v>
+      </c>
+      <c r="L93" s="41">
+        <f t="shared" si="42"/>
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="23">
+        <v>35</v>
+      </c>
+      <c r="E94" s="23">
+        <v>40</v>
+      </c>
+      <c r="F94" s="23">
+        <v>42</v>
+      </c>
+      <c r="G94" s="23">
+        <v>48</v>
+      </c>
+      <c r="H94" s="41">
+        <f t="shared" ref="H94:K96" si="44">D94*1.04</f>
+        <v>36.4</v>
+      </c>
+      <c r="I94" s="41">
+        <f t="shared" si="44"/>
+        <v>41.6</v>
+      </c>
+      <c r="J94" s="41">
+        <f t="shared" si="44"/>
+        <v>43.68</v>
+      </c>
+      <c r="K94" s="41">
+        <f t="shared" si="44"/>
+        <v>49.92</v>
+      </c>
+      <c r="L94" s="41">
+        <f t="shared" si="42"/>
+        <v>42.900000000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="50"/>
+      <c r="D95" s="23">
+        <v>40</v>
+      </c>
+      <c r="E95" s="23">
+        <v>38</v>
+      </c>
+      <c r="F95" s="23">
+        <v>55</v>
+      </c>
+      <c r="G95" s="23">
+        <v>46</v>
+      </c>
+      <c r="H95" s="41">
+        <f t="shared" si="44"/>
+        <v>41.6</v>
+      </c>
+      <c r="I95" s="41">
+        <f t="shared" si="44"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="J95" s="41">
+        <f t="shared" si="44"/>
+        <v>57.2</v>
+      </c>
+      <c r="K95" s="41">
+        <f t="shared" si="44"/>
+        <v>47.84</v>
+      </c>
+      <c r="L95" s="41">
+        <f t="shared" si="42"/>
+        <v>46.54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B96" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="50"/>
+      <c r="D96" s="23">
+        <v>29</v>
+      </c>
+      <c r="E96" s="23">
+        <v>34</v>
+      </c>
+      <c r="F96" s="23">
+        <v>71</v>
+      </c>
+      <c r="G96" s="23">
+        <v>42</v>
+      </c>
+      <c r="H96" s="41">
+        <f t="shared" si="44"/>
+        <v>30.16</v>
+      </c>
+      <c r="I96" s="41">
+        <f t="shared" si="44"/>
+        <v>35.36</v>
+      </c>
+      <c r="J96" s="41">
+        <f t="shared" si="44"/>
+        <v>73.84</v>
+      </c>
+      <c r="K96" s="41">
+        <f t="shared" si="44"/>
+        <v>43.68</v>
+      </c>
+      <c r="L96" s="41">
+        <f t="shared" si="42"/>
+        <v>45.760000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="23">
+        <v>39</v>
+      </c>
+      <c r="E97" s="23">
+        <v>29</v>
+      </c>
+      <c r="F97" s="23">
+        <v>38</v>
+      </c>
+      <c r="G97" s="23">
+        <v>60</v>
+      </c>
+      <c r="H97" s="41">
+        <f t="shared" ref="H97:K99" si="45">D97*1.04</f>
+        <v>40.56</v>
+      </c>
+      <c r="I97" s="41">
+        <f t="shared" si="45"/>
+        <v>30.16</v>
+      </c>
+      <c r="J97" s="41">
+        <f t="shared" si="45"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="K97" s="41">
+        <f t="shared" si="45"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="L97" s="43">
+        <f t="shared" ref="L97:L99" si="46">AVERAGE(H97:K97)</f>
+        <v>43.160000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="50"/>
+      <c r="D98" s="23">
+        <v>41</v>
+      </c>
+      <c r="E98" s="23">
+        <v>41</v>
+      </c>
+      <c r="F98" s="23">
+        <v>32</v>
+      </c>
+      <c r="G98" s="23">
+        <v>30</v>
+      </c>
+      <c r="H98" s="41">
+        <f t="shared" si="45"/>
+        <v>42.64</v>
+      </c>
+      <c r="I98" s="41">
+        <f t="shared" si="45"/>
+        <v>42.64</v>
+      </c>
+      <c r="J98" s="41">
+        <f t="shared" si="45"/>
+        <v>33.28</v>
+      </c>
+      <c r="K98" s="41">
+        <f t="shared" si="45"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="L98" s="43">
+        <f t="shared" si="46"/>
+        <v>37.44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="50"/>
+      <c r="D99" s="23">
+        <v>41</v>
+      </c>
+      <c r="E99" s="23">
+        <v>23</v>
+      </c>
+      <c r="F99" s="23">
+        <v>54</v>
+      </c>
+      <c r="G99" s="23">
+        <v>85</v>
+      </c>
+      <c r="H99" s="41">
+        <f>D99*1.04</f>
+        <v>42.64</v>
+      </c>
+      <c r="I99" s="41">
+        <f t="shared" si="45"/>
+        <v>23.92</v>
+      </c>
+      <c r="J99" s="41">
+        <f t="shared" si="45"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="K99" s="41">
+        <f t="shared" si="45"/>
+        <v>88.4</v>
+      </c>
+      <c r="L99" s="43">
+        <f t="shared" si="46"/>
+        <v>52.78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="23">
+        <v>42</v>
+      </c>
+      <c r="E100" s="23">
+        <v>44</v>
+      </c>
+      <c r="F100" s="23">
+        <v>31</v>
+      </c>
+      <c r="G100" s="23">
+        <v>48</v>
+      </c>
+      <c r="H100" s="41">
+        <f t="shared" ref="H100:K102" si="47">D100*1.04</f>
+        <v>43.68</v>
+      </c>
+      <c r="I100" s="41">
+        <f t="shared" si="47"/>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="J100" s="41">
+        <f t="shared" si="47"/>
+        <v>32.24</v>
+      </c>
+      <c r="K100" s="41">
+        <f t="shared" si="47"/>
+        <v>49.92</v>
+      </c>
+      <c r="L100" s="43">
+        <f t="shared" ref="L100:L102" si="48">AVERAGE(H100:K100)</f>
+        <v>42.900000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B101" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="50"/>
+      <c r="D101" s="23">
+        <v>33</v>
+      </c>
+      <c r="E101" s="23">
+        <v>52</v>
+      </c>
+      <c r="F101" s="23">
+        <v>49</v>
+      </c>
+      <c r="G101" s="23">
+        <v>32</v>
+      </c>
+      <c r="H101" s="41">
+        <f t="shared" si="47"/>
+        <v>34.32</v>
+      </c>
+      <c r="I101" s="41">
+        <f t="shared" si="47"/>
+        <v>54.08</v>
+      </c>
+      <c r="J101" s="41">
+        <f t="shared" si="47"/>
+        <v>50.96</v>
+      </c>
+      <c r="K101" s="41">
+        <f t="shared" si="47"/>
+        <v>33.28</v>
+      </c>
+      <c r="L101" s="43">
+        <f t="shared" si="48"/>
+        <v>43.160000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B102" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="50"/>
+      <c r="D102" s="23">
+        <v>43</v>
+      </c>
+      <c r="E102" s="23">
+        <v>32</v>
+      </c>
+      <c r="F102" s="23">
+        <v>35</v>
+      </c>
+      <c r="G102" s="23">
+        <v>48</v>
+      </c>
+      <c r="H102" s="41">
+        <f t="shared" si="47"/>
+        <v>44.72</v>
+      </c>
+      <c r="I102" s="41">
+        <f t="shared" si="47"/>
+        <v>33.28</v>
+      </c>
+      <c r="J102" s="41">
+        <f t="shared" si="47"/>
+        <v>36.4</v>
+      </c>
+      <c r="K102" s="41">
+        <f t="shared" si="47"/>
+        <v>49.92</v>
+      </c>
+      <c r="L102" s="43">
+        <f t="shared" si="48"/>
+        <v>41.08</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B103" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="23">
+        <v>56</v>
+      </c>
+      <c r="E103" s="23">
+        <v>33</v>
+      </c>
+      <c r="F103" s="23">
+        <v>61</v>
+      </c>
+      <c r="G103" s="23">
+        <v>26</v>
+      </c>
+      <c r="H103" s="41">
+        <f t="shared" ref="H103:K105" si="49">D103*1.04</f>
+        <v>58.24</v>
+      </c>
+      <c r="I103" s="41">
+        <f t="shared" si="49"/>
+        <v>34.32</v>
+      </c>
+      <c r="J103" s="41">
+        <f t="shared" si="49"/>
+        <v>63.440000000000005</v>
+      </c>
+      <c r="K103" s="41">
+        <f t="shared" si="49"/>
+        <v>27.04</v>
+      </c>
+      <c r="L103" s="43">
+        <f t="shared" ref="L103:L105" si="50">AVERAGE(H103:K103)</f>
+        <v>45.76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B104" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="50"/>
+      <c r="D104" s="23">
+        <v>53</v>
+      </c>
+      <c r="E104" s="23">
+        <v>59</v>
+      </c>
+      <c r="F104" s="23">
+        <v>58</v>
+      </c>
+      <c r="G104" s="23">
+        <v>52</v>
+      </c>
+      <c r="H104" s="41">
+        <f t="shared" si="49"/>
+        <v>55.120000000000005</v>
+      </c>
+      <c r="I104" s="41">
+        <f t="shared" si="49"/>
+        <v>61.36</v>
+      </c>
+      <c r="J104" s="41">
+        <f t="shared" si="49"/>
+        <v>60.32</v>
+      </c>
+      <c r="K104" s="41">
+        <f t="shared" si="49"/>
+        <v>54.08</v>
+      </c>
+      <c r="L104" s="43">
+        <f t="shared" si="50"/>
+        <v>57.72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="53">
+        <v>43159</v>
+      </c>
+      <c r="B105" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="50"/>
+      <c r="D105" s="23">
+        <v>47</v>
+      </c>
+      <c r="E105" s="23">
+        <v>43</v>
+      </c>
+      <c r="F105" s="23">
+        <v>49</v>
+      </c>
+      <c r="G105" s="23">
+        <v>66</v>
+      </c>
+      <c r="H105" s="41">
+        <f t="shared" si="49"/>
+        <v>48.88</v>
+      </c>
+      <c r="I105" s="41">
+        <f t="shared" si="49"/>
+        <v>44.72</v>
+      </c>
+      <c r="J105" s="41">
+        <f t="shared" si="49"/>
+        <v>50.96</v>
+      </c>
+      <c r="K105" s="41">
+        <f t="shared" si="49"/>
+        <v>68.64</v>
+      </c>
+      <c r="L105" s="43">
+        <f t="shared" si="50"/>
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B106" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="44">
+        <v>30</v>
+      </c>
+      <c r="E106" s="44">
+        <v>52</v>
+      </c>
+      <c r="F106" s="44">
+        <v>40</v>
+      </c>
+      <c r="G106" s="23">
+        <v>52</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" ref="H106:K108" si="51">D106*1.04</f>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="I106" s="11">
+        <f t="shared" si="51"/>
+        <v>54.08</v>
+      </c>
+      <c r="J106" s="11">
+        <f t="shared" si="51"/>
+        <v>41.6</v>
+      </c>
+      <c r="K106" s="11">
+        <f t="shared" si="51"/>
+        <v>54.08</v>
+      </c>
+      <c r="L106" s="11">
+        <f t="shared" ref="L106:L114" si="52">AVERAGE(H106:K106)</f>
+        <v>45.239999999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B107" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="45"/>
+      <c r="D107" s="44">
+        <v>29</v>
+      </c>
+      <c r="E107" s="44">
+        <v>48</v>
+      </c>
+      <c r="F107" s="44">
+        <v>54</v>
+      </c>
+      <c r="G107" s="23">
+        <v>66</v>
+      </c>
+      <c r="H107" s="11">
+        <f t="shared" si="51"/>
+        <v>30.16</v>
+      </c>
+      <c r="I107" s="11">
+        <f t="shared" si="51"/>
+        <v>49.92</v>
+      </c>
+      <c r="J107" s="11">
+        <f t="shared" si="51"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="K107" s="11">
+        <f t="shared" si="51"/>
+        <v>68.64</v>
+      </c>
+      <c r="L107" s="11">
+        <f t="shared" si="52"/>
+        <v>51.22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B108" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="45"/>
+      <c r="D108" s="44">
+        <v>42</v>
+      </c>
+      <c r="E108" s="44">
+        <v>63</v>
+      </c>
+      <c r="F108" s="44">
+        <v>56</v>
+      </c>
+      <c r="G108" s="23">
+        <v>51</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" si="51"/>
+        <v>43.68</v>
+      </c>
+      <c r="I108" s="11">
+        <f t="shared" si="51"/>
+        <v>65.52</v>
+      </c>
+      <c r="J108" s="11">
+        <f t="shared" si="51"/>
+        <v>58.24</v>
+      </c>
+      <c r="K108" s="11">
+        <f t="shared" si="51"/>
+        <v>53.04</v>
+      </c>
+      <c r="L108" s="11">
+        <f t="shared" si="52"/>
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="44">
+        <v>35</v>
+      </c>
+      <c r="E109" s="44">
+        <v>18</v>
+      </c>
+      <c r="F109" s="44">
+        <v>41</v>
+      </c>
+      <c r="G109" s="23">
+        <v>43</v>
+      </c>
+      <c r="H109" s="11">
+        <f t="shared" ref="H109:K111" si="53">D109*1.04</f>
+        <v>36.4</v>
+      </c>
+      <c r="I109" s="11">
+        <f t="shared" si="53"/>
+        <v>18.72</v>
+      </c>
+      <c r="J109" s="11">
+        <f t="shared" si="53"/>
+        <v>42.64</v>
+      </c>
+      <c r="K109" s="11">
+        <f t="shared" si="53"/>
+        <v>44.72</v>
+      </c>
+      <c r="L109" s="11">
+        <f t="shared" si="52"/>
+        <v>35.619999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="45"/>
+      <c r="D110" s="44">
+        <v>39</v>
+      </c>
+      <c r="E110" s="44">
+        <v>42</v>
+      </c>
+      <c r="F110" s="44">
+        <v>42</v>
+      </c>
+      <c r="G110" s="23">
+        <v>61</v>
+      </c>
+      <c r="H110" s="11">
+        <f t="shared" si="53"/>
+        <v>40.56</v>
+      </c>
+      <c r="I110" s="11">
+        <f t="shared" si="53"/>
+        <v>43.68</v>
+      </c>
+      <c r="J110" s="11">
+        <f t="shared" si="53"/>
+        <v>43.68</v>
+      </c>
+      <c r="K110" s="11">
+        <f t="shared" si="53"/>
+        <v>63.440000000000005</v>
+      </c>
+      <c r="L110" s="11">
+        <f t="shared" si="52"/>
+        <v>47.84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B111" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="45"/>
+      <c r="D111" s="44">
+        <v>66</v>
+      </c>
+      <c r="E111" s="44">
+        <v>59</v>
+      </c>
+      <c r="F111" s="44">
+        <v>45</v>
+      </c>
+      <c r="G111" s="23">
+        <v>40</v>
+      </c>
+      <c r="H111" s="11">
+        <f t="shared" si="53"/>
+        <v>68.64</v>
+      </c>
+      <c r="I111" s="11">
+        <f t="shared" si="53"/>
+        <v>61.36</v>
+      </c>
+      <c r="J111" s="11">
+        <f t="shared" si="53"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="K111" s="11">
+        <f t="shared" si="53"/>
+        <v>41.6</v>
+      </c>
+      <c r="L111" s="11">
+        <f t="shared" si="52"/>
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B112" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="44">
+        <v>23</v>
+      </c>
+      <c r="E112" s="44">
+        <v>36</v>
+      </c>
+      <c r="F112" s="44">
+        <v>35</v>
+      </c>
+      <c r="G112" s="44">
+        <v>38</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" ref="H112:K114" si="54">D112*1.04</f>
+        <v>23.92</v>
+      </c>
+      <c r="I112" s="11">
+        <f t="shared" si="54"/>
+        <v>37.44</v>
+      </c>
+      <c r="J112" s="11">
+        <f t="shared" si="54"/>
+        <v>36.4</v>
+      </c>
+      <c r="K112" s="11">
+        <f t="shared" si="54"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="L112" s="11">
+        <f t="shared" si="52"/>
+        <v>34.32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B113" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="45"/>
+      <c r="D113" s="44">
+        <v>24</v>
+      </c>
+      <c r="E113" s="44">
+        <v>36</v>
+      </c>
+      <c r="F113" s="44">
+        <v>52</v>
+      </c>
+      <c r="G113" s="44">
+        <v>38</v>
+      </c>
+      <c r="H113" s="11">
+        <f t="shared" si="54"/>
+        <v>24.96</v>
+      </c>
+      <c r="I113" s="11">
+        <f t="shared" si="54"/>
+        <v>37.44</v>
+      </c>
+      <c r="J113" s="11">
+        <f t="shared" si="54"/>
+        <v>54.08</v>
+      </c>
+      <c r="K113" s="11">
+        <f t="shared" si="54"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="L113" s="11">
+        <f t="shared" si="52"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B114" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="45"/>
+      <c r="D114" s="44">
+        <v>35</v>
+      </c>
+      <c r="E114" s="44">
+        <v>38</v>
+      </c>
+      <c r="F114" s="44">
+        <v>56</v>
+      </c>
+      <c r="G114" s="44">
+        <v>44</v>
+      </c>
+      <c r="H114" s="11">
+        <f t="shared" si="54"/>
+        <v>36.4</v>
+      </c>
+      <c r="I114" s="11">
+        <f t="shared" si="54"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="J114" s="11">
+        <f t="shared" si="54"/>
+        <v>58.24</v>
+      </c>
+      <c r="K114" s="11">
+        <f t="shared" si="54"/>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="L114" s="11">
+        <f t="shared" si="52"/>
+        <v>44.980000000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="44">
+        <v>31</v>
+      </c>
+      <c r="E115" s="44">
+        <v>20</v>
+      </c>
+      <c r="F115" s="44">
+        <v>32</v>
+      </c>
+      <c r="G115" s="23">
+        <v>52</v>
+      </c>
+      <c r="H115" s="11">
+        <f t="shared" ref="H115:K117" si="55">D115*1.04</f>
+        <v>32.24</v>
+      </c>
+      <c r="I115" s="11">
+        <f t="shared" si="55"/>
+        <v>20.8</v>
+      </c>
+      <c r="J115" s="11">
+        <f t="shared" si="55"/>
+        <v>33.28</v>
+      </c>
+      <c r="K115" s="11">
+        <f t="shared" si="55"/>
+        <v>54.08</v>
+      </c>
+      <c r="L115" s="12">
+        <f t="shared" ref="L115:L117" si="56">AVERAGE(H115:K115)</f>
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A116" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="45"/>
+      <c r="D116" s="44">
+        <v>40</v>
+      </c>
+      <c r="E116" s="44">
+        <v>34</v>
+      </c>
+      <c r="F116" s="44">
+        <v>33</v>
+      </c>
+      <c r="G116" s="23">
+        <v>24</v>
+      </c>
+      <c r="H116" s="11">
+        <f t="shared" si="55"/>
+        <v>41.6</v>
+      </c>
+      <c r="I116" s="11">
+        <f t="shared" si="55"/>
+        <v>35.36</v>
+      </c>
+      <c r="J116" s="11">
+        <f t="shared" si="55"/>
+        <v>34.32</v>
+      </c>
+      <c r="K116" s="11">
+        <f t="shared" si="55"/>
+        <v>24.96</v>
+      </c>
+      <c r="L116" s="12">
+        <f t="shared" si="56"/>
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B117" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="45"/>
+      <c r="D117" s="44">
+        <v>35</v>
+      </c>
+      <c r="E117" s="44">
+        <v>23</v>
+      </c>
+      <c r="F117" s="44">
+        <v>52</v>
+      </c>
+      <c r="G117" s="23">
+        <v>86</v>
+      </c>
+      <c r="H117" s="11">
+        <f>D117*1.04</f>
+        <v>36.4</v>
+      </c>
+      <c r="I117" s="11">
+        <f t="shared" si="55"/>
+        <v>23.92</v>
+      </c>
+      <c r="J117" s="11">
+        <f t="shared" si="55"/>
+        <v>54.08</v>
+      </c>
+      <c r="K117" s="11">
+        <f t="shared" si="55"/>
+        <v>89.44</v>
+      </c>
+      <c r="L117" s="12">
+        <f t="shared" si="56"/>
+        <v>50.96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A118" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B118" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="44">
+        <v>33</v>
+      </c>
+      <c r="E118" s="44">
+        <v>38</v>
+      </c>
+      <c r="F118" s="44">
+        <v>34</v>
+      </c>
+      <c r="G118" s="44">
+        <v>52</v>
+      </c>
+      <c r="H118" s="11">
+        <f t="shared" ref="H118:K120" si="57">D118*1.04</f>
+        <v>34.32</v>
+      </c>
+      <c r="I118" s="11">
+        <f t="shared" si="57"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="J118" s="11">
+        <f t="shared" si="57"/>
+        <v>35.36</v>
+      </c>
+      <c r="K118" s="11">
+        <f t="shared" si="57"/>
+        <v>54.08</v>
+      </c>
+      <c r="L118" s="12">
+        <f t="shared" ref="L118:L120" si="58">AVERAGE(H118:K118)</f>
+        <v>40.82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B119" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="45"/>
+      <c r="D119" s="44">
+        <v>31</v>
+      </c>
+      <c r="E119" s="44">
+        <v>28</v>
+      </c>
+      <c r="F119" s="44">
+        <v>32</v>
+      </c>
+      <c r="G119" s="44">
+        <v>38</v>
+      </c>
+      <c r="H119" s="11">
+        <f t="shared" si="57"/>
+        <v>32.24</v>
+      </c>
+      <c r="I119" s="11">
+        <f t="shared" si="57"/>
+        <v>29.12</v>
+      </c>
+      <c r="J119" s="11">
+        <f t="shared" si="57"/>
+        <v>33.28</v>
+      </c>
+      <c r="K119" s="11">
+        <f t="shared" si="57"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="L119" s="12">
+        <f t="shared" si="58"/>
+        <v>33.54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B120" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="45"/>
+      <c r="D120" s="44">
+        <v>35</v>
+      </c>
+      <c r="E120" s="44">
+        <v>36</v>
+      </c>
+      <c r="F120" s="44">
+        <v>57</v>
+      </c>
+      <c r="G120" s="44">
+        <v>48</v>
+      </c>
+      <c r="H120" s="11">
+        <f t="shared" si="57"/>
+        <v>36.4</v>
+      </c>
+      <c r="I120" s="11">
+        <f t="shared" si="57"/>
+        <v>37.44</v>
+      </c>
+      <c r="J120" s="11">
+        <f t="shared" si="57"/>
+        <v>59.28</v>
+      </c>
+      <c r="K120" s="11">
+        <f t="shared" si="57"/>
+        <v>49.92</v>
+      </c>
+      <c r="L120" s="12">
+        <f t="shared" si="58"/>
+        <v>45.760000000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="44">
+        <v>52</v>
+      </c>
+      <c r="E121" s="44">
+        <v>29</v>
+      </c>
+      <c r="F121" s="44">
+        <v>54</v>
+      </c>
+      <c r="G121" s="44">
+        <v>27</v>
+      </c>
+      <c r="H121" s="11">
+        <f t="shared" ref="H121:K123" si="59">D121*1.04</f>
+        <v>54.08</v>
+      </c>
+      <c r="I121" s="11">
+        <f t="shared" si="59"/>
+        <v>30.16</v>
+      </c>
+      <c r="J121" s="11">
+        <f t="shared" si="59"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="K121" s="11">
+        <f t="shared" si="59"/>
+        <v>28.080000000000002</v>
+      </c>
+      <c r="L121" s="12">
+        <f t="shared" ref="L121:L123" si="60">AVERAGE(H121:K121)</f>
+        <v>42.120000000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B122" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="45"/>
+      <c r="D122" s="44">
+        <v>48</v>
+      </c>
+      <c r="E122" s="44">
+        <v>52</v>
+      </c>
+      <c r="F122" s="44">
+        <v>54</v>
+      </c>
+      <c r="G122" s="44">
+        <v>45</v>
+      </c>
+      <c r="H122" s="11">
+        <f t="shared" si="59"/>
+        <v>49.92</v>
+      </c>
+      <c r="I122" s="11">
+        <f t="shared" si="59"/>
+        <v>54.08</v>
+      </c>
+      <c r="J122" s="11">
+        <f t="shared" si="59"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="K122" s="11">
+        <f t="shared" si="59"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="L122" s="12">
+        <f t="shared" si="60"/>
+        <v>51.74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" s="54">
+        <v>43193</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="45"/>
+      <c r="D123" s="44">
+        <v>43</v>
+      </c>
+      <c r="E123" s="44">
+        <v>45</v>
+      </c>
+      <c r="F123" s="44">
+        <v>52</v>
+      </c>
+      <c r="G123" s="44">
+        <v>51</v>
+      </c>
+      <c r="H123" s="11">
+        <f t="shared" si="59"/>
+        <v>44.72</v>
+      </c>
+      <c r="I123" s="11">
+        <f t="shared" si="59"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="J123" s="11">
+        <f t="shared" si="59"/>
+        <v>54.08</v>
+      </c>
+      <c r="K123" s="11">
+        <f t="shared" si="59"/>
+        <v>53.04</v>
+      </c>
+      <c r="L123" s="12">
+        <f t="shared" si="60"/>
+        <v>49.660000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B124" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="23">
+        <v>19</v>
+      </c>
+      <c r="E124" s="23">
+        <v>40</v>
+      </c>
+      <c r="F124" s="23">
+        <v>22</v>
+      </c>
+      <c r="G124" s="23">
+        <v>33</v>
+      </c>
+      <c r="H124" s="41">
+        <f t="shared" ref="H124:K126" si="61">D124*1.04</f>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="I124" s="41">
+        <f t="shared" si="61"/>
+        <v>41.6</v>
+      </c>
+      <c r="J124" s="41">
+        <f t="shared" si="61"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="K124" s="41">
+        <f t="shared" si="61"/>
+        <v>34.32</v>
+      </c>
+      <c r="L124" s="41">
+        <f t="shared" ref="L124:L132" si="62">AVERAGE(H124:K124)</f>
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B125" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="50"/>
+      <c r="D125" s="23">
+        <v>18</v>
+      </c>
+      <c r="E125" s="23">
+        <v>19</v>
+      </c>
+      <c r="F125" s="23">
+        <v>24</v>
+      </c>
+      <c r="G125" s="23">
+        <v>20</v>
+      </c>
+      <c r="H125" s="41">
+        <f t="shared" si="61"/>
+        <v>18.72</v>
+      </c>
+      <c r="I125" s="41">
+        <f t="shared" si="61"/>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="J125" s="41">
+        <f t="shared" si="61"/>
+        <v>24.96</v>
+      </c>
+      <c r="K125" s="41">
+        <f t="shared" si="61"/>
+        <v>20.8</v>
+      </c>
+      <c r="L125" s="41">
+        <f t="shared" si="62"/>
+        <v>21.060000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B126" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="50"/>
+      <c r="D126" s="23">
+        <v>21</v>
+      </c>
+      <c r="E126" s="23">
+        <v>42</v>
+      </c>
+      <c r="F126" s="23">
+        <v>26</v>
+      </c>
+      <c r="G126" s="23">
+        <v>29</v>
+      </c>
+      <c r="H126" s="41">
+        <f t="shared" si="61"/>
+        <v>21.84</v>
+      </c>
+      <c r="I126" s="41">
+        <f t="shared" si="61"/>
+        <v>43.68</v>
+      </c>
+      <c r="J126" s="41">
+        <f t="shared" si="61"/>
+        <v>27.04</v>
+      </c>
+      <c r="K126" s="41">
+        <f t="shared" si="61"/>
+        <v>30.16</v>
+      </c>
+      <c r="L126" s="41">
+        <f t="shared" si="62"/>
+        <v>30.68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B127" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="23">
+        <v>9</v>
+      </c>
+      <c r="E127" s="23">
+        <v>35</v>
+      </c>
+      <c r="F127" s="23">
+        <v>26</v>
+      </c>
+      <c r="G127" s="23">
+        <v>20</v>
+      </c>
+      <c r="H127" s="41">
+        <f t="shared" ref="H127:K129" si="63">D127*1.04</f>
+        <v>9.36</v>
+      </c>
+      <c r="I127" s="41">
+        <f t="shared" si="63"/>
+        <v>36.4</v>
+      </c>
+      <c r="J127" s="41">
+        <f t="shared" si="63"/>
+        <v>27.04</v>
+      </c>
+      <c r="K127" s="41">
+        <f t="shared" si="63"/>
+        <v>20.8</v>
+      </c>
+      <c r="L127" s="41">
+        <f t="shared" si="62"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="50"/>
+      <c r="D128" s="23">
+        <v>41</v>
+      </c>
+      <c r="E128" s="23">
+        <v>36</v>
+      </c>
+      <c r="F128" s="23">
+        <v>41</v>
+      </c>
+      <c r="G128" s="23">
+        <v>37</v>
+      </c>
+      <c r="H128" s="41">
+        <f t="shared" si="63"/>
+        <v>42.64</v>
+      </c>
+      <c r="I128" s="41">
+        <f t="shared" si="63"/>
+        <v>37.44</v>
+      </c>
+      <c r="J128" s="41">
+        <f t="shared" si="63"/>
+        <v>42.64</v>
+      </c>
+      <c r="K128" s="41">
+        <f t="shared" si="63"/>
+        <v>38.480000000000004</v>
+      </c>
+      <c r="L128" s="41">
+        <f t="shared" si="62"/>
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B129" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="50"/>
+      <c r="D129" s="23">
+        <v>41</v>
+      </c>
+      <c r="E129" s="23">
+        <v>39</v>
+      </c>
+      <c r="F129" s="23">
+        <v>40</v>
+      </c>
+      <c r="G129" s="23">
+        <v>63</v>
+      </c>
+      <c r="H129" s="41">
+        <f t="shared" si="63"/>
+        <v>42.64</v>
+      </c>
+      <c r="I129" s="41">
+        <f t="shared" si="63"/>
+        <v>40.56</v>
+      </c>
+      <c r="J129" s="41">
+        <f t="shared" si="63"/>
+        <v>41.6</v>
+      </c>
+      <c r="K129" s="41">
+        <f t="shared" si="63"/>
+        <v>65.52</v>
+      </c>
+      <c r="L129" s="41">
+        <f t="shared" si="62"/>
+        <v>47.58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="23">
+        <v>16</v>
+      </c>
+      <c r="E130" s="23">
+        <v>19</v>
+      </c>
+      <c r="F130" s="23">
+        <v>28</v>
+      </c>
+      <c r="G130" s="23">
+        <v>18</v>
+      </c>
+      <c r="H130" s="41">
+        <f t="shared" ref="H130:K132" si="64">D130*1.04</f>
+        <v>16.64</v>
+      </c>
+      <c r="I130" s="41">
+        <f t="shared" si="64"/>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="J130" s="41">
+        <f t="shared" si="64"/>
+        <v>29.12</v>
+      </c>
+      <c r="K130" s="41">
+        <f t="shared" si="64"/>
+        <v>18.72</v>
+      </c>
+      <c r="L130" s="41">
+        <f t="shared" si="62"/>
+        <v>21.060000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A131" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B131" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="50"/>
+      <c r="D131" s="23">
+        <v>22</v>
+      </c>
+      <c r="E131" s="23">
+        <v>23</v>
+      </c>
+      <c r="F131" s="23">
+        <v>28</v>
+      </c>
+      <c r="G131" s="23">
+        <v>40</v>
+      </c>
+      <c r="H131" s="41">
+        <f t="shared" si="64"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="I131" s="41">
+        <f t="shared" si="64"/>
+        <v>23.92</v>
+      </c>
+      <c r="J131" s="41">
+        <f t="shared" si="64"/>
+        <v>29.12</v>
+      </c>
+      <c r="K131" s="41">
+        <f t="shared" si="64"/>
+        <v>41.6</v>
+      </c>
+      <c r="L131" s="41">
+        <f t="shared" si="62"/>
+        <v>29.380000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B132" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="50"/>
+      <c r="D132" s="23">
+        <v>18</v>
+      </c>
+      <c r="E132" s="23">
+        <v>19</v>
+      </c>
+      <c r="F132" s="23">
+        <v>23</v>
+      </c>
+      <c r="G132" s="23">
+        <v>24</v>
+      </c>
+      <c r="H132" s="41">
+        <f t="shared" si="64"/>
+        <v>18.72</v>
+      </c>
+      <c r="I132" s="41">
+        <f t="shared" si="64"/>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="J132" s="41">
+        <f t="shared" si="64"/>
+        <v>23.92</v>
+      </c>
+      <c r="K132" s="41">
+        <f t="shared" si="64"/>
+        <v>24.96</v>
+      </c>
+      <c r="L132" s="41">
+        <f t="shared" si="62"/>
+        <v>21.840000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B133" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="23">
+        <v>25</v>
+      </c>
+      <c r="E133" s="23">
+        <v>17</v>
+      </c>
+      <c r="F133" s="23">
+        <v>20</v>
+      </c>
+      <c r="G133" s="23">
+        <v>23</v>
+      </c>
+      <c r="H133" s="41">
+        <f t="shared" ref="H133:K135" si="65">D133*1.04</f>
+        <v>26</v>
+      </c>
+      <c r="I133" s="41">
+        <f t="shared" si="65"/>
+        <v>17.68</v>
+      </c>
+      <c r="J133" s="41">
+        <f t="shared" si="65"/>
+        <v>20.8</v>
+      </c>
+      <c r="K133" s="41">
+        <f t="shared" si="65"/>
+        <v>23.92</v>
+      </c>
+      <c r="L133" s="43">
+        <f t="shared" ref="L133:L135" si="66">AVERAGE(H133:K133)</f>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B134" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="50"/>
+      <c r="D134" s="23">
+        <v>31</v>
+      </c>
+      <c r="E134" s="23">
+        <v>27</v>
+      </c>
+      <c r="F134" s="23">
+        <v>28</v>
+      </c>
+      <c r="G134" s="23">
+        <v>11</v>
+      </c>
+      <c r="H134" s="41">
+        <f t="shared" si="65"/>
+        <v>32.24</v>
+      </c>
+      <c r="I134" s="41">
+        <f t="shared" si="65"/>
+        <v>28.080000000000002</v>
+      </c>
+      <c r="J134" s="41">
+        <f t="shared" si="65"/>
+        <v>29.12</v>
+      </c>
+      <c r="K134" s="41">
+        <f t="shared" si="65"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="L134" s="43">
+        <f t="shared" si="66"/>
+        <v>25.220000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B135" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="50"/>
+      <c r="D135" s="23">
+        <v>29</v>
+      </c>
+      <c r="E135" s="23">
+        <v>35</v>
+      </c>
+      <c r="F135" s="23">
+        <v>59</v>
+      </c>
+      <c r="G135" s="23">
+        <v>89</v>
+      </c>
+      <c r="H135" s="41">
+        <f>D135*1.04</f>
+        <v>30.16</v>
+      </c>
+      <c r="I135" s="41">
+        <f t="shared" si="65"/>
+        <v>36.4</v>
+      </c>
+      <c r="J135" s="41">
+        <f t="shared" si="65"/>
+        <v>61.36</v>
+      </c>
+      <c r="K135" s="41">
+        <f t="shared" si="65"/>
+        <v>92.56</v>
+      </c>
+      <c r="L135" s="43">
+        <f t="shared" si="66"/>
+        <v>55.120000000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B136" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="23">
+        <v>38</v>
+      </c>
+      <c r="E136" s="23">
+        <v>31</v>
+      </c>
+      <c r="F136" s="23">
+        <v>34</v>
+      </c>
+      <c r="G136" s="23">
+        <v>51</v>
+      </c>
+      <c r="H136" s="41">
+        <f t="shared" ref="H136:K138" si="67">D136*1.04</f>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="I136" s="41">
+        <f t="shared" si="67"/>
+        <v>32.24</v>
+      </c>
+      <c r="J136" s="41">
+        <f t="shared" si="67"/>
+        <v>35.36</v>
+      </c>
+      <c r="K136" s="41">
+        <f t="shared" si="67"/>
+        <v>53.04</v>
+      </c>
+      <c r="L136" s="43">
+        <f t="shared" ref="L136:L138" si="68">AVERAGE(H136:K136)</f>
+        <v>40.04</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B137" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="50"/>
+      <c r="D137" s="23">
+        <v>20</v>
+      </c>
+      <c r="E137" s="23">
+        <v>35</v>
+      </c>
+      <c r="F137" s="23">
+        <v>29</v>
+      </c>
+      <c r="G137" s="23">
+        <v>21</v>
+      </c>
+      <c r="H137" s="41">
+        <f t="shared" si="67"/>
+        <v>20.8</v>
+      </c>
+      <c r="I137" s="41">
+        <f t="shared" si="67"/>
+        <v>36.4</v>
+      </c>
+      <c r="J137" s="41">
+        <f t="shared" si="67"/>
+        <v>30.16</v>
+      </c>
+      <c r="K137" s="41">
+        <f t="shared" si="67"/>
+        <v>21.84</v>
+      </c>
+      <c r="L137" s="43">
+        <f t="shared" si="68"/>
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B138" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="50"/>
+      <c r="D138" s="23">
+        <v>17</v>
+      </c>
+      <c r="E138" s="23">
+        <v>38</v>
+      </c>
+      <c r="F138" s="23">
+        <v>39</v>
+      </c>
+      <c r="G138" s="23">
+        <v>48</v>
+      </c>
+      <c r="H138" s="41">
+        <f t="shared" si="67"/>
+        <v>17.68</v>
+      </c>
+      <c r="I138" s="41">
+        <f t="shared" si="67"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="J138" s="41">
+        <f t="shared" si="67"/>
+        <v>40.56</v>
+      </c>
+      <c r="K138" s="41">
+        <f t="shared" si="67"/>
+        <v>49.92</v>
+      </c>
+      <c r="L138" s="43">
+        <f t="shared" si="68"/>
+        <v>36.92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B139" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="23">
+        <v>46</v>
+      </c>
+      <c r="E139" s="23">
+        <v>28</v>
+      </c>
+      <c r="F139" s="23">
+        <v>32</v>
+      </c>
+      <c r="G139" s="23">
+        <v>37</v>
+      </c>
+      <c r="H139" s="41">
+        <f t="shared" ref="H139:K144" si="69">D139*1.04</f>
+        <v>47.84</v>
+      </c>
+      <c r="I139" s="41">
+        <f t="shared" si="69"/>
+        <v>29.12</v>
+      </c>
+      <c r="J139" s="41">
+        <f t="shared" si="69"/>
+        <v>33.28</v>
+      </c>
+      <c r="K139" s="41">
+        <f t="shared" si="69"/>
+        <v>38.480000000000004</v>
+      </c>
+      <c r="L139" s="43">
+        <f t="shared" ref="L139:L141" si="70">AVERAGE(H139:K139)</f>
+        <v>37.180000000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B140" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="50"/>
+      <c r="D140" s="23">
+        <v>47</v>
+      </c>
+      <c r="E140" s="23">
+        <v>52</v>
+      </c>
+      <c r="F140" s="23">
+        <v>59</v>
+      </c>
+      <c r="G140" s="23">
+        <v>35</v>
+      </c>
+      <c r="H140" s="41">
+        <f t="shared" si="69"/>
+        <v>48.88</v>
+      </c>
+      <c r="I140" s="41">
+        <f t="shared" si="69"/>
+        <v>54.08</v>
+      </c>
+      <c r="J140" s="41">
+        <f t="shared" si="69"/>
+        <v>61.36</v>
+      </c>
+      <c r="K140" s="41">
+        <f t="shared" si="69"/>
+        <v>36.4</v>
+      </c>
+      <c r="L140" s="43">
+        <f t="shared" si="70"/>
+        <v>50.18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" s="53">
+        <v>43327</v>
+      </c>
+      <c r="B141" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="50"/>
+      <c r="D141" s="23">
+        <v>32</v>
+      </c>
+      <c r="E141" s="23">
+        <v>55</v>
+      </c>
+      <c r="F141" s="23">
+        <v>48</v>
+      </c>
+      <c r="G141" s="23">
+        <v>48</v>
+      </c>
+      <c r="H141" s="41">
+        <f t="shared" si="69"/>
+        <v>33.28</v>
+      </c>
+      <c r="I141" s="41">
+        <f t="shared" si="69"/>
+        <v>57.2</v>
+      </c>
+      <c r="J141" s="41">
+        <f t="shared" si="69"/>
+        <v>49.92</v>
+      </c>
+      <c r="K141" s="41">
+        <f t="shared" si="69"/>
+        <v>49.92</v>
+      </c>
+      <c r="L141" s="43">
+        <f t="shared" si="70"/>
+        <v>47.58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B142" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="23">
+        <v>11</v>
+      </c>
+      <c r="E142" s="23">
+        <v>12</v>
+      </c>
+      <c r="F142" s="23">
+        <v>22</v>
+      </c>
+      <c r="G142" s="23">
+        <v>18</v>
+      </c>
+      <c r="H142" s="41">
+        <f t="shared" si="69"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="I142" s="41">
+        <f t="shared" si="69"/>
+        <v>12.48</v>
+      </c>
+      <c r="J142" s="41">
+        <f t="shared" si="69"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="K142" s="41">
+        <f t="shared" si="69"/>
+        <v>18.72</v>
+      </c>
+      <c r="L142" s="41">
+        <f t="shared" ref="L142:L150" si="71">AVERAGE(H142:K142)</f>
+        <v>16.380000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B143" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="50"/>
+      <c r="D143" s="23">
+        <v>7</v>
+      </c>
+      <c r="E143" s="23">
+        <v>17</v>
+      </c>
+      <c r="F143" s="23">
+        <v>30</v>
+      </c>
+      <c r="G143" s="23">
+        <v>16</v>
+      </c>
+      <c r="H143" s="41">
+        <f t="shared" si="69"/>
+        <v>7.28</v>
+      </c>
+      <c r="I143" s="41">
+        <f t="shared" si="69"/>
+        <v>17.68</v>
+      </c>
+      <c r="J143" s="41">
+        <f t="shared" si="69"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="K143" s="41">
+        <f t="shared" si="69"/>
+        <v>16.64</v>
+      </c>
+      <c r="L143" s="41">
+        <f t="shared" si="71"/>
+        <v>18.200000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B144" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="50"/>
+      <c r="D144" s="23">
+        <v>21</v>
+      </c>
+      <c r="E144" s="23">
+        <v>17</v>
+      </c>
+      <c r="F144" s="23">
+        <v>20</v>
+      </c>
+      <c r="G144" s="23">
+        <v>8</v>
+      </c>
+      <c r="H144" s="41">
+        <f t="shared" si="69"/>
+        <v>21.84</v>
+      </c>
+      <c r="I144" s="41">
+        <f t="shared" si="69"/>
+        <v>17.68</v>
+      </c>
+      <c r="J144" s="41">
+        <f t="shared" si="69"/>
+        <v>20.8</v>
+      </c>
+      <c r="K144" s="41">
+        <f t="shared" si="69"/>
+        <v>8.32</v>
+      </c>
+      <c r="L144" s="41">
+        <f t="shared" si="71"/>
+        <v>17.159999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B145" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="23">
+        <v>1</v>
+      </c>
+      <c r="E145" s="23">
+        <v>4</v>
+      </c>
+      <c r="F145" s="23">
+        <v>10</v>
+      </c>
+      <c r="G145" s="23">
+        <v>21</v>
+      </c>
+      <c r="H145" s="41">
+        <f t="shared" ref="H145:K147" si="72">D145*1.04</f>
+        <v>1.04</v>
+      </c>
+      <c r="I145" s="41">
+        <f t="shared" si="72"/>
+        <v>4.16</v>
+      </c>
+      <c r="J145" s="41">
+        <f t="shared" si="72"/>
+        <v>10.4</v>
+      </c>
+      <c r="K145" s="41">
+        <f t="shared" si="72"/>
+        <v>21.84</v>
+      </c>
+      <c r="L145" s="41">
+        <f t="shared" si="71"/>
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B146" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="50"/>
+      <c r="D146" s="23">
+        <v>27</v>
+      </c>
+      <c r="E146" s="23">
+        <v>9</v>
+      </c>
+      <c r="F146" s="23">
+        <v>12</v>
+      </c>
+      <c r="G146" s="23">
+        <v>10</v>
+      </c>
+      <c r="H146" s="41">
+        <f t="shared" si="72"/>
+        <v>28.080000000000002</v>
+      </c>
+      <c r="I146" s="41">
+        <f t="shared" si="72"/>
+        <v>9.36</v>
+      </c>
+      <c r="J146" s="41">
+        <f t="shared" si="72"/>
+        <v>12.48</v>
+      </c>
+      <c r="K146" s="41">
+        <f t="shared" si="72"/>
+        <v>10.4</v>
+      </c>
+      <c r="L146" s="41">
+        <f t="shared" si="71"/>
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B147" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="50"/>
+      <c r="D147" s="23">
+        <v>39</v>
+      </c>
+      <c r="E147" s="23">
+        <v>14</v>
+      </c>
+      <c r="F147" s="23">
+        <v>6</v>
+      </c>
+      <c r="G147" s="23">
+        <v>44</v>
+      </c>
+      <c r="H147" s="41">
+        <f t="shared" si="72"/>
+        <v>40.56</v>
+      </c>
+      <c r="I147" s="41">
+        <f t="shared" si="72"/>
+        <v>14.56</v>
+      </c>
+      <c r="J147" s="41">
+        <f t="shared" si="72"/>
+        <v>6.24</v>
+      </c>
+      <c r="K147" s="41">
+        <f t="shared" si="72"/>
+        <v>45.760000000000005</v>
+      </c>
+      <c r="L147" s="41">
+        <f t="shared" si="71"/>
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B148" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="23">
+        <v>16</v>
+      </c>
+      <c r="E148" s="23">
+        <v>14</v>
+      </c>
+      <c r="F148" s="23">
+        <v>28</v>
+      </c>
+      <c r="G148" s="23">
+        <v>12</v>
+      </c>
+      <c r="H148" s="41">
+        <f t="shared" ref="H148:K150" si="73">D148*1.04</f>
+        <v>16.64</v>
+      </c>
+      <c r="I148" s="41">
+        <f t="shared" si="73"/>
+        <v>14.56</v>
+      </c>
+      <c r="J148" s="41">
+        <f t="shared" si="73"/>
+        <v>29.12</v>
+      </c>
+      <c r="K148" s="41">
+        <f t="shared" si="73"/>
+        <v>12.48</v>
+      </c>
+      <c r="L148" s="41">
+        <f t="shared" si="71"/>
+        <v>18.200000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A149" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B149" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="50"/>
+      <c r="D149" s="23">
+        <v>15</v>
+      </c>
+      <c r="E149" s="23">
+        <v>22</v>
+      </c>
+      <c r="F149" s="23">
+        <v>27</v>
+      </c>
+      <c r="G149" s="23">
+        <v>16</v>
+      </c>
+      <c r="H149" s="41">
+        <f t="shared" si="73"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I149" s="41">
+        <f t="shared" si="73"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="J149" s="41">
+        <f t="shared" si="73"/>
+        <v>28.080000000000002</v>
+      </c>
+      <c r="K149" s="41">
+        <f t="shared" si="73"/>
+        <v>16.64</v>
+      </c>
+      <c r="L149" s="41">
+        <f t="shared" si="71"/>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B150" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="50"/>
+      <c r="D150" s="23">
+        <v>9</v>
+      </c>
+      <c r="E150" s="23">
+        <v>27</v>
+      </c>
+      <c r="F150" s="23">
+        <v>18</v>
+      </c>
+      <c r="G150" s="23">
+        <v>22</v>
+      </c>
+      <c r="H150" s="41">
+        <f t="shared" si="73"/>
+        <v>9.36</v>
+      </c>
+      <c r="I150" s="41">
+        <f t="shared" si="73"/>
+        <v>28.080000000000002</v>
+      </c>
+      <c r="J150" s="41">
+        <f t="shared" si="73"/>
+        <v>18.72</v>
+      </c>
+      <c r="K150" s="41">
+        <f t="shared" si="73"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="L150" s="41">
+        <f t="shared" si="71"/>
+        <v>19.759999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B151" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="23">
+        <v>34</v>
+      </c>
+      <c r="E151" s="23">
+        <v>12</v>
+      </c>
+      <c r="F151" s="23">
+        <v>22</v>
+      </c>
+      <c r="G151" s="23">
+        <v>7</v>
+      </c>
+      <c r="H151" s="41">
+        <f t="shared" ref="H151:K153" si="74">D151*1.04</f>
+        <v>35.36</v>
+      </c>
+      <c r="I151" s="41">
+        <f t="shared" si="74"/>
+        <v>12.48</v>
+      </c>
+      <c r="J151" s="41">
+        <f t="shared" si="74"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="K151" s="41">
+        <f t="shared" si="74"/>
+        <v>7.28</v>
+      </c>
+      <c r="L151" s="43">
+        <f t="shared" ref="L151:L153" si="75">AVERAGE(H151:K151)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B152" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" s="50"/>
+      <c r="D152" s="23">
+        <v>34</v>
+      </c>
+      <c r="E152" s="23">
+        <v>11</v>
+      </c>
+      <c r="F152" s="23">
+        <v>25</v>
+      </c>
+      <c r="G152" s="23">
+        <v>10</v>
+      </c>
+      <c r="H152" s="41">
+        <f t="shared" si="74"/>
+        <v>35.36</v>
+      </c>
+      <c r="I152" s="41">
+        <f t="shared" si="74"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="J152" s="41">
+        <f t="shared" si="74"/>
+        <v>26</v>
+      </c>
+      <c r="K152" s="41">
+        <f t="shared" si="74"/>
+        <v>10.4</v>
+      </c>
+      <c r="L152" s="43">
+        <f t="shared" si="75"/>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B153" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" s="50"/>
+      <c r="D153" s="23">
+        <v>7</v>
+      </c>
+      <c r="E153" s="23">
+        <v>11</v>
+      </c>
+      <c r="F153" s="23">
+        <v>13</v>
+      </c>
+      <c r="G153" s="23">
+        <v>29</v>
+      </c>
+      <c r="H153" s="41">
+        <f>D153*1.04</f>
+        <v>7.28</v>
+      </c>
+      <c r="I153" s="41">
+        <f t="shared" si="74"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="J153" s="41">
+        <f t="shared" si="74"/>
+        <v>13.52</v>
+      </c>
+      <c r="K153" s="41">
+        <f t="shared" si="74"/>
+        <v>30.16</v>
+      </c>
+      <c r="L153" s="43">
+        <f t="shared" si="75"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B154" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="23">
+        <v>22</v>
+      </c>
+      <c r="E154" s="23">
+        <v>13</v>
+      </c>
+      <c r="F154" s="23">
+        <v>11</v>
+      </c>
+      <c r="G154" s="23">
+        <v>12</v>
+      </c>
+      <c r="H154" s="41">
+        <f t="shared" ref="H154:K156" si="76">D154*1.04</f>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="I154" s="41">
+        <f t="shared" si="76"/>
+        <v>13.52</v>
+      </c>
+      <c r="J154" s="41">
+        <f t="shared" si="76"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="K154" s="41">
+        <f t="shared" si="76"/>
+        <v>12.48</v>
+      </c>
+      <c r="L154" s="43">
+        <f t="shared" ref="L154:L156" si="77">AVERAGE(H154:K154)</f>
+        <v>15.080000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B155" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="50"/>
+      <c r="D155" s="23">
+        <v>16</v>
+      </c>
+      <c r="E155" s="23">
+        <v>12</v>
+      </c>
+      <c r="F155" s="23">
+        <v>25</v>
+      </c>
+      <c r="G155" s="23">
+        <v>29</v>
+      </c>
+      <c r="H155" s="41">
+        <f t="shared" si="76"/>
+        <v>16.64</v>
+      </c>
+      <c r="I155" s="41">
+        <f t="shared" si="76"/>
+        <v>12.48</v>
+      </c>
+      <c r="J155" s="41">
+        <f t="shared" si="76"/>
+        <v>26</v>
+      </c>
+      <c r="K155" s="41">
+        <f t="shared" si="76"/>
+        <v>30.16</v>
+      </c>
+      <c r="L155" s="43">
+        <f t="shared" si="77"/>
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B156" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" s="50"/>
+      <c r="D156" s="23">
+        <v>36</v>
+      </c>
+      <c r="E156" s="23">
+        <v>29</v>
+      </c>
+      <c r="F156" s="23">
+        <v>26</v>
+      </c>
+      <c r="G156" s="23">
+        <v>8</v>
+      </c>
+      <c r="H156" s="41">
+        <f t="shared" si="76"/>
+        <v>37.44</v>
+      </c>
+      <c r="I156" s="41">
+        <f t="shared" si="76"/>
+        <v>30.16</v>
+      </c>
+      <c r="J156" s="41">
+        <f t="shared" si="76"/>
+        <v>27.04</v>
+      </c>
+      <c r="K156" s="41">
+        <f t="shared" si="76"/>
+        <v>8.32</v>
+      </c>
+      <c r="L156" s="43">
+        <f t="shared" si="77"/>
+        <v>25.739999999999995</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B157" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="23">
+        <v>17</v>
+      </c>
+      <c r="E157" s="23">
+        <v>4</v>
+      </c>
+      <c r="F157" s="23">
+        <v>11</v>
+      </c>
+      <c r="G157" s="23">
+        <v>18</v>
+      </c>
+      <c r="H157" s="41">
+        <f t="shared" ref="H157:K159" si="78">D157*1.04</f>
+        <v>17.68</v>
+      </c>
+      <c r="I157" s="41">
+        <f t="shared" si="78"/>
+        <v>4.16</v>
+      </c>
+      <c r="J157" s="41">
+        <f t="shared" si="78"/>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="K157" s="41">
+        <f t="shared" si="78"/>
+        <v>18.72</v>
+      </c>
+      <c r="L157" s="43">
+        <f t="shared" ref="L157:L159" si="79">AVERAGE(H157:K157)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B158" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="50"/>
+      <c r="D158" s="23">
+        <v>15</v>
+      </c>
+      <c r="E158" s="23">
+        <v>8</v>
+      </c>
+      <c r="F158" s="23">
+        <v>7</v>
+      </c>
+      <c r="G158" s="23">
+        <v>35</v>
+      </c>
+      <c r="H158" s="41">
+        <f t="shared" si="78"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I158" s="41">
+        <f t="shared" si="78"/>
+        <v>8.32</v>
+      </c>
+      <c r="J158" s="41">
+        <f t="shared" si="78"/>
+        <v>7.28</v>
+      </c>
+      <c r="K158" s="41">
+        <f t="shared" si="78"/>
+        <v>36.4</v>
+      </c>
+      <c r="L158" s="43">
+        <f t="shared" si="79"/>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" s="53">
+        <v>43685</v>
+      </c>
+      <c r="B159" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" s="50"/>
+      <c r="D159" s="23">
+        <v>8</v>
+      </c>
+      <c r="E159" s="23">
+        <v>10</v>
+      </c>
+      <c r="F159" s="23">
+        <v>10</v>
+      </c>
+      <c r="G159" s="23">
+        <v>13</v>
+      </c>
+      <c r="H159" s="41">
+        <f t="shared" si="78"/>
+        <v>8.32</v>
+      </c>
+      <c r="I159" s="41">
+        <f t="shared" si="78"/>
+        <v>10.4</v>
+      </c>
+      <c r="J159" s="41">
+        <f t="shared" si="78"/>
+        <v>10.4</v>
+      </c>
+      <c r="K159" s="41">
+        <f t="shared" si="78"/>
+        <v>13.52</v>
+      </c>
+      <c r="L159" s="43">
+        <f t="shared" si="79"/>
+        <v>10.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>